--- a/prueba25/copia_B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(1).xlsx
+++ b/prueba25/copia_B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(1).xlsx
@@ -46,7 +46,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -54,6 +54,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,15 +385,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R283"/>
+  <dimension ref="A1:R281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col width="26.6640625" customWidth="1" min="1" max="1"/>
+    <col width="26.6640625" customWidth="1" style="3" min="1" max="1"/>
     <col width="40.44140625" customWidth="1" min="2" max="2"/>
     <col width="21.21875" customWidth="1" min="3" max="3"/>
     <col width="26.44140625" customWidth="1" min="4" max="4"/>
@@ -402,7 +403,7 @@
     <col width="64.88671875" customWidth="1" min="8" max="8"/>
     <col width="29" customWidth="1" min="9" max="9"/>
     <col width="36.77734375" customWidth="1" min="10" max="10"/>
-    <col width="48.44140625" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="48.44140625" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
     <col width="27.21875" customWidth="1" min="12" max="12"/>
     <col width="41.33203125" customWidth="1" min="13" max="13"/>
     <col width="11.77734375" bestFit="1" customWidth="1" min="14" max="14"/>
@@ -1543,7 +1544,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="24" customHeight="1">
+    <row r="14">
       <c r="A14" s="2">
         <f>DF--.1</f>
         <v/>
@@ -16394,7 +16395,7 @@
       <c r="C220" s="1" t="n"/>
       <c r="D220" s="1" t="inlineStr">
         <is>
-          <t>-0XD01</t>
+          <t>-XD310</t>
         </is>
       </c>
       <c r="E220" s="1" t="n"/>
@@ -16410,23 +16411,23 @@
       </c>
       <c r="H220" s="1" t="inlineStr">
         <is>
-          <t>-WD++CC1-0XD01/
- ++CC1-0BG02</t>
+          <t>-WD++CC1-XD310/
+ ++OP1-XD3</t>
         </is>
       </c>
       <c r="I220" s="1" t="inlineStr">
         <is>
-          <t>ÖLFLEX CLASSIC 110</t>
+          <t>ÖLFLEX CLASSIC 110 G</t>
         </is>
       </c>
       <c r="J220" s="1" t="inlineStr">
         <is>
-          <t>2x1 mm²</t>
+          <t>3G2,5 mm²</t>
         </is>
       </c>
       <c r="K220" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/4.4</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/5.7</t>
         </is>
       </c>
       <c r="L220" s="2">
@@ -16435,26 +16436,18 @@
       </c>
       <c r="M220" s="1" t="inlineStr">
         <is>
-          <t>++CC1</t>
+          <t>++OP1</t>
         </is>
       </c>
       <c r="N220" s="1" t="n"/>
       <c r="O220" s="1" t="inlineStr">
         <is>
-          <t>-0BG02</t>
+          <t>-XD3</t>
         </is>
       </c>
       <c r="P220" s="1" t="n"/>
-      <c r="Q220" s="1" t="inlineStr">
-        <is>
-          <t>RITTAL</t>
-        </is>
-      </c>
-      <c r="R220" s="1" t="inlineStr">
-        <is>
-          <t>SZ.4127010</t>
-        </is>
-      </c>
+      <c r="Q220" s="1" t="n"/>
+      <c r="R220" s="1" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="2">
@@ -16486,7 +16479,7 @@
       <c r="H221" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD310/
- ++OP1-XD3</t>
+ ++OP3-XD3</t>
         </is>
       </c>
       <c r="I221" s="1" t="inlineStr">
@@ -16501,7 +16494,7 @@
       </c>
       <c r="K221" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/5.7</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/5.8</t>
         </is>
       </c>
       <c r="L221" s="2">
@@ -16510,7 +16503,7 @@
       </c>
       <c r="M221" s="1" t="inlineStr">
         <is>
-          <t>++OP1</t>
+          <t>++OP3</t>
         </is>
       </c>
       <c r="N221" s="1" t="n"/>
@@ -16536,7 +16529,7 @@
       <c r="C222" s="1" t="n"/>
       <c r="D222" s="1" t="inlineStr">
         <is>
-          <t>-XD310</t>
+          <t>-XD311</t>
         </is>
       </c>
       <c r="E222" s="1" t="n"/>
@@ -16552,8 +16545,8 @@
       </c>
       <c r="H222" s="1" t="inlineStr">
         <is>
-          <t>-WD++CC1-XD310/
- ++OP3-XD3</t>
+          <t>-WD++CC1-XD311/
+ ++1.010IR1+RC1-XG11.1_TA1</t>
         </is>
       </c>
       <c r="I222" s="1" t="inlineStr">
@@ -16563,12 +16556,12 @@
       </c>
       <c r="J222" s="1" t="inlineStr">
         <is>
-          <t>3G2,5 mm²</t>
+          <t>3G1,5 mm²</t>
         </is>
       </c>
       <c r="K222" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/5.8</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/7.1</t>
         </is>
       </c>
       <c r="L222" s="2">
@@ -16577,13 +16570,17 @@
       </c>
       <c r="M222" s="1" t="inlineStr">
         <is>
-          <t>++OP3</t>
-        </is>
-      </c>
-      <c r="N222" s="1" t="n"/>
+          <t>++1.010IR1</t>
+        </is>
+      </c>
+      <c r="N222" s="1" t="inlineStr">
+        <is>
+          <t>+RC1</t>
+        </is>
+      </c>
       <c r="O222" s="1" t="inlineStr">
         <is>
-          <t>-XD3</t>
+          <t>-XG11.1_TA1</t>
         </is>
       </c>
       <c r="P222" s="1" t="n"/>
@@ -16620,7 +16617,7 @@
       <c r="H223" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.010IR1+RC1-XG11.1_TA1</t>
+ ++1.010IR2+RC1-XG11.1_TA2</t>
         </is>
       </c>
       <c r="I223" s="1" t="inlineStr">
@@ -16635,7 +16632,7 @@
       </c>
       <c r="K223" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/7.1</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/7.2</t>
         </is>
       </c>
       <c r="L223" s="2">
@@ -16644,7 +16641,7 @@
       </c>
       <c r="M223" s="1" t="inlineStr">
         <is>
-          <t>++1.010IR1</t>
+          <t>++1.010IR2</t>
         </is>
       </c>
       <c r="N223" s="1" t="inlineStr">
@@ -16654,7 +16651,7 @@
       </c>
       <c r="O223" s="1" t="inlineStr">
         <is>
-          <t>-XG11.1_TA1</t>
+          <t>-XG11.1_TA2</t>
         </is>
       </c>
       <c r="P223" s="1" t="n"/>
@@ -16691,7 +16688,7 @@
       <c r="H224" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.010IR2+RC1-XG11.1_TA2</t>
+ ++1.035IR1+RC1-XG11.1</t>
         </is>
       </c>
       <c r="I224" s="1" t="inlineStr">
@@ -16706,7 +16703,7 @@
       </c>
       <c r="K224" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/7.2</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/7.3</t>
         </is>
       </c>
       <c r="L224" s="2">
@@ -16715,7 +16712,7 @@
       </c>
       <c r="M224" s="1" t="inlineStr">
         <is>
-          <t>++1.010IR2</t>
+          <t>++1.035IR1</t>
         </is>
       </c>
       <c r="N224" s="1" t="inlineStr">
@@ -16725,7 +16722,7 @@
       </c>
       <c r="O224" s="1" t="inlineStr">
         <is>
-          <t>-XG11.1_TA2</t>
+          <t>-XG11.1</t>
         </is>
       </c>
       <c r="P224" s="1" t="n"/>
@@ -16762,7 +16759,7 @@
       <c r="H225" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.035IR1+RC1-XG11.1</t>
+ ++1.050IR1+RC1-XG11.1</t>
         </is>
       </c>
       <c r="I225" s="1" t="inlineStr">
@@ -16777,7 +16774,7 @@
       </c>
       <c r="K225" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/7.3</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/7.4</t>
         </is>
       </c>
       <c r="L225" s="2">
@@ -16786,7 +16783,7 @@
       </c>
       <c r="M225" s="1" t="inlineStr">
         <is>
-          <t>++1.035IR1</t>
+          <t>++1.050IR1</t>
         </is>
       </c>
       <c r="N225" s="1" t="inlineStr">
@@ -16833,7 +16830,7 @@
       <c r="H226" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.050IR2+RC1-XG11.1</t>
+ ++1.060IR1+RC1-XG11.1_TA1</t>
         </is>
       </c>
       <c r="I226" s="1" t="inlineStr">
@@ -16848,7 +16845,7 @@
       </c>
       <c r="K226" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/7.5</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/7.6</t>
         </is>
       </c>
       <c r="L226" s="2">
@@ -16857,7 +16854,7 @@
       </c>
       <c r="M226" s="1" t="inlineStr">
         <is>
-          <t>++1.050IR2</t>
+          <t>++1.060IR1</t>
         </is>
       </c>
       <c r="N226" s="1" t="inlineStr">
@@ -16867,7 +16864,7 @@
       </c>
       <c r="O226" s="1" t="inlineStr">
         <is>
-          <t>-XG11.1</t>
+          <t>-XG11.1_TA1</t>
         </is>
       </c>
       <c r="P226" s="1" t="n"/>
@@ -16904,7 +16901,7 @@
       <c r="H227" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.060IR1+RC1-XG11.1_TA1</t>
+ ++1.060IR2+RC1-XG11.1_TA2</t>
         </is>
       </c>
       <c r="I227" s="1" t="inlineStr">
@@ -16919,7 +16916,7 @@
       </c>
       <c r="K227" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/7.6</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/7.7</t>
         </is>
       </c>
       <c r="L227" s="2">
@@ -16928,7 +16925,7 @@
       </c>
       <c r="M227" s="1" t="inlineStr">
         <is>
-          <t>++1.060IR1</t>
+          <t>++1.060IR2</t>
         </is>
       </c>
       <c r="N227" s="1" t="inlineStr">
@@ -16938,7 +16935,7 @@
       </c>
       <c r="O227" s="1" t="inlineStr">
         <is>
-          <t>-XG11.1_TA1</t>
+          <t>-XG11.1_TA2</t>
         </is>
       </c>
       <c r="P227" s="1" t="n"/>
@@ -16975,7 +16972,7 @@
       <c r="H228" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.060IR2+RC1-XG11.1_TA2</t>
+ ++1.070IR1+RC1-XG11.1_TA1</t>
         </is>
       </c>
       <c r="I228" s="1" t="inlineStr">
@@ -16990,7 +16987,7 @@
       </c>
       <c r="K228" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/7.7</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/7.8</t>
         </is>
       </c>
       <c r="L228" s="2">
@@ -16999,7 +16996,7 @@
       </c>
       <c r="M228" s="1" t="inlineStr">
         <is>
-          <t>++1.060IR2</t>
+          <t>++1.070IR1</t>
         </is>
       </c>
       <c r="N228" s="1" t="inlineStr">
@@ -17009,7 +17006,7 @@
       </c>
       <c r="O228" s="1" t="inlineStr">
         <is>
-          <t>-XG11.1_TA2</t>
+          <t>-XG11.1_TA1</t>
         </is>
       </c>
       <c r="P228" s="1" t="n"/>
@@ -17046,7 +17043,7 @@
       <c r="H229" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.070IR1+RC1-XG11.1_TA1</t>
+ ++1.080IR1+RC1-XG11.1_TA2</t>
         </is>
       </c>
       <c r="I229" s="1" t="inlineStr">
@@ -17061,7 +17058,7 @@
       </c>
       <c r="K229" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/7.8</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/8.1</t>
         </is>
       </c>
       <c r="L229" s="2">
@@ -17070,7 +17067,7 @@
       </c>
       <c r="M229" s="1" t="inlineStr">
         <is>
-          <t>++1.070IR1</t>
+          <t>++1.080IR1</t>
         </is>
       </c>
       <c r="N229" s="1" t="inlineStr">
@@ -17080,7 +17077,7 @@
       </c>
       <c r="O229" s="1" t="inlineStr">
         <is>
-          <t>-XG11.1_TA1</t>
+          <t>-XG11.1_TA2</t>
         </is>
       </c>
       <c r="P229" s="1" t="n"/>
@@ -17117,7 +17114,7 @@
       <c r="H230" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.080IR1+RC1-XG11.1_TA2</t>
+ ++1.090IR1+RC1-XG11.1</t>
         </is>
       </c>
       <c r="I230" s="1" t="inlineStr">
@@ -17132,7 +17129,7 @@
       </c>
       <c r="K230" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/8.1</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/8.2</t>
         </is>
       </c>
       <c r="L230" s="2">
@@ -17141,7 +17138,7 @@
       </c>
       <c r="M230" s="1" t="inlineStr">
         <is>
-          <t>++1.080IR1</t>
+          <t>++1.090IR1</t>
         </is>
       </c>
       <c r="N230" s="1" t="inlineStr">
@@ -17151,7 +17148,7 @@
       </c>
       <c r="O230" s="1" t="inlineStr">
         <is>
-          <t>-XG11.1_TA2</t>
+          <t>-XG11.1</t>
         </is>
       </c>
       <c r="P230" s="1" t="n"/>
@@ -17188,7 +17185,7 @@
       <c r="H231" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.090IR1+RC1-XG11.1</t>
+ ++1.090IR2+RC1-XG11.1</t>
         </is>
       </c>
       <c r="I231" s="1" t="inlineStr">
@@ -17203,7 +17200,7 @@
       </c>
       <c r="K231" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/8.2</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/8.3</t>
         </is>
       </c>
       <c r="L231" s="2">
@@ -17212,7 +17209,7 @@
       </c>
       <c r="M231" s="1" t="inlineStr">
         <is>
-          <t>++1.090IR1</t>
+          <t>++1.090IR2</t>
         </is>
       </c>
       <c r="N231" s="1" t="inlineStr">
@@ -17259,7 +17256,7 @@
       <c r="H232" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD311/
- ++1.090IR2+RC1-XG11.1</t>
+ ++1.100IR1+RC1-XG11.1</t>
         </is>
       </c>
       <c r="I232" s="1" t="inlineStr">
@@ -17274,7 +17271,7 @@
       </c>
       <c r="K232" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/8.3</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/8.4</t>
         </is>
       </c>
       <c r="L232" s="2">
@@ -17283,7 +17280,7 @@
       </c>
       <c r="M232" s="1" t="inlineStr">
         <is>
-          <t>++1.090IR2</t>
+          <t>++1.100IR1</t>
         </is>
       </c>
       <c r="N232" s="1" t="inlineStr">
@@ -17313,7 +17310,7 @@
       <c r="C233" s="1" t="n"/>
       <c r="D233" s="1" t="inlineStr">
         <is>
-          <t>-XD311</t>
+          <t>-XD320</t>
         </is>
       </c>
       <c r="E233" s="1" t="n"/>
@@ -17329,8 +17326,8 @@
       </c>
       <c r="H233" s="1" t="inlineStr">
         <is>
-          <t>-WD++CC1-XD311/
- ++1.100IR1+RC1-XG11.1</t>
+          <t>-WD++CC1-XD320/
+ ++1.000SD1-FQ01-X1</t>
         </is>
       </c>
       <c r="I233" s="1" t="inlineStr">
@@ -17340,12 +17337,12 @@
       </c>
       <c r="J233" s="1" t="inlineStr">
         <is>
-          <t>3G1,5 mm²</t>
+          <t>5G2,5 mm²</t>
         </is>
       </c>
       <c r="K233" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/8.4</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/12.6</t>
         </is>
       </c>
       <c r="L233" s="2">
@@ -17354,22 +17351,30 @@
       </c>
       <c r="M233" s="1" t="inlineStr">
         <is>
-          <t>++1.100IR1</t>
-        </is>
-      </c>
-      <c r="N233" s="1" t="inlineStr">
-        <is>
-          <t>+RC1</t>
-        </is>
-      </c>
+          <t>++1.000SD1</t>
+        </is>
+      </c>
+      <c r="N233" s="1" t="n"/>
       <c r="O233" s="1" t="inlineStr">
         <is>
-          <t>-XG11.1</t>
-        </is>
-      </c>
-      <c r="P233" s="1" t="n"/>
-      <c r="Q233" s="1" t="n"/>
-      <c r="R233" s="1" t="n"/>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="P233" s="1" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+      <c r="Q233" s="1" t="inlineStr">
+        <is>
+          <t>EUCHNER</t>
+        </is>
+      </c>
+      <c r="R233" s="1" t="inlineStr">
+        <is>
+          <t>MGB-L2HEB-PNC-L</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
@@ -17401,7 +17406,7 @@
       <c r="H234" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD320/
- ++1.000SD1-FQ01-X1</t>
+ ++1.010SW1-BG01-XD1B-XD1</t>
         </is>
       </c>
       <c r="I234" s="1" t="inlineStr">
@@ -17416,7 +17421,7 @@
       </c>
       <c r="K234" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/12.6</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/12.7</t>
         </is>
       </c>
       <c r="L234" s="2">
@@ -17425,30 +17430,18 @@
       </c>
       <c r="M234" s="1" t="inlineStr">
         <is>
-          <t>++1.000SD1</t>
+          <t>++1.010SW1</t>
         </is>
       </c>
       <c r="N234" s="1" t="n"/>
       <c r="O234" s="1" t="inlineStr">
         <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="P234" s="1" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-      <c r="Q234" s="1" t="inlineStr">
-        <is>
-          <t>EUCHNER</t>
-        </is>
-      </c>
-      <c r="R234" s="1" t="inlineStr">
-        <is>
-          <t>MGB-L2HEB-PNC-L</t>
-        </is>
-      </c>
+          <t>-BG01</t>
+        </is>
+      </c>
+      <c r="P234" s="1" t="n"/>
+      <c r="Q234" s="1" t="n"/>
+      <c r="R234" s="1" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="2">
@@ -17480,7 +17473,7 @@
       <c r="H235" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD320/
- ++1.010SW1-BG01-XD1B-XD1</t>
+ ++1.010TT1-XD01A</t>
         </is>
       </c>
       <c r="I235" s="1" t="inlineStr">
@@ -17495,7 +17488,7 @@
       </c>
       <c r="K235" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/12.7</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/12.8</t>
         </is>
       </c>
       <c r="L235" s="2">
@@ -17504,18 +17497,26 @@
       </c>
       <c r="M235" s="1" t="inlineStr">
         <is>
-          <t>++1.010SW1</t>
+          <t>++1.010TT1</t>
         </is>
       </c>
       <c r="N235" s="1" t="n"/>
       <c r="O235" s="1" t="inlineStr">
         <is>
-          <t>-BG01</t>
+          <t>-XD01A</t>
         </is>
       </c>
       <c r="P235" s="1" t="n"/>
-      <c r="Q235" s="1" t="n"/>
-      <c r="R235" s="1" t="n"/>
+      <c r="Q235" s="1" t="inlineStr">
+        <is>
+          <t>WEIDMÜLLER</t>
+        </is>
+      </c>
+      <c r="R235" s="1" t="inlineStr">
+        <is>
+          <t>IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
@@ -17547,7 +17548,7 @@
       <c r="H236" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD320/
- ++1.010TT1-XD01A</t>
+ ++MS1+VI1-KF55-XD01</t>
         </is>
       </c>
       <c r="I236" s="1" t="inlineStr">
@@ -17562,7 +17563,7 @@
       </c>
       <c r="K236" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/12.8</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/12.5</t>
         </is>
       </c>
       <c r="L236" s="2">
@@ -17571,24 +17572,32 @@
       </c>
       <c r="M236" s="1" t="inlineStr">
         <is>
-          <t>++1.010TT1</t>
-        </is>
-      </c>
-      <c r="N236" s="1" t="n"/>
+          <t>++MS1</t>
+        </is>
+      </c>
+      <c r="N236" s="1" t="inlineStr">
+        <is>
+          <t>+VI1</t>
+        </is>
+      </c>
       <c r="O236" s="1" t="inlineStr">
         <is>
-          <t>-XD01A</t>
-        </is>
-      </c>
-      <c r="P236" s="1" t="n"/>
+          <t>-KF55</t>
+        </is>
+      </c>
+      <c r="P236" s="1" t="inlineStr">
+        <is>
+          <t>-XD01</t>
+        </is>
+      </c>
       <c r="Q236" s="1" t="inlineStr">
         <is>
-          <t>WEIDMÜLLER</t>
+          <t>MURRELEKTRONIK</t>
         </is>
       </c>
       <c r="R236" s="1" t="inlineStr">
         <is>
-          <t>IE-CD-V14MRJ/VAPM24V-C</t>
+          <t>MVK-MPNIO DI6 DO6 IOL IRT</t>
         </is>
       </c>
     </row>
@@ -17605,7 +17614,7 @@
       <c r="C237" s="1" t="n"/>
       <c r="D237" s="1" t="inlineStr">
         <is>
-          <t>-XD320</t>
+          <t>-XD321</t>
         </is>
       </c>
       <c r="E237" s="1" t="n"/>
@@ -17621,8 +17630,8 @@
       </c>
       <c r="H237" s="1" t="inlineStr">
         <is>
-          <t>-WD++CC1-XD320/
- ++MS1+VI1-KF55-XD01</t>
+          <t>-WD++CC1-XD321/
+ ++1.010SW2-BG01-XD1B-XD1</t>
         </is>
       </c>
       <c r="I237" s="1" t="inlineStr">
@@ -17637,7 +17646,7 @@
       </c>
       <c r="K237" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/12.5</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/13.2</t>
         </is>
       </c>
       <c r="L237" s="2">
@@ -17646,34 +17655,18 @@
       </c>
       <c r="M237" s="1" t="inlineStr">
         <is>
-          <t>++MS1</t>
-        </is>
-      </c>
-      <c r="N237" s="1" t="inlineStr">
-        <is>
-          <t>+VI1</t>
-        </is>
-      </c>
+          <t>++1.010SW2</t>
+        </is>
+      </c>
+      <c r="N237" s="1" t="n"/>
       <c r="O237" s="1" t="inlineStr">
         <is>
-          <t>-KF55</t>
-        </is>
-      </c>
-      <c r="P237" s="1" t="inlineStr">
-        <is>
-          <t>-XD01</t>
-        </is>
-      </c>
-      <c r="Q237" s="1" t="inlineStr">
-        <is>
-          <t>MURRELEKTRONIK</t>
-        </is>
-      </c>
-      <c r="R237" s="1" t="inlineStr">
-        <is>
-          <t>MVK-MPNIO DI6 DO6 IOL IRT</t>
-        </is>
-      </c>
+          <t>-BG01</t>
+        </is>
+      </c>
+      <c r="P237" s="1" t="n"/>
+      <c r="Q237" s="1" t="n"/>
+      <c r="R237" s="1" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="2">
@@ -17705,7 +17698,7 @@
       <c r="H238" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD321/
- ++1.010SW2-BG01-XD1B-XD1</t>
+ ++1.050SW1-BG01-XD1B-XD1</t>
         </is>
       </c>
       <c r="I238" s="1" t="inlineStr">
@@ -17720,7 +17713,7 @@
       </c>
       <c r="K238" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/13.2</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/13.5</t>
         </is>
       </c>
       <c r="L238" s="2">
@@ -17729,7 +17722,7 @@
       </c>
       <c r="M238" s="1" t="inlineStr">
         <is>
-          <t>++1.010SW2</t>
+          <t>++1.050SW1</t>
         </is>
       </c>
       <c r="N238" s="1" t="n"/>
@@ -17772,7 +17765,7 @@
       <c r="H239" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD321/
- ++1.050SW1-BG01-XD1B-XD1</t>
+ ++1.050TT1-XD01A</t>
         </is>
       </c>
       <c r="I239" s="1" t="inlineStr">
@@ -17787,7 +17780,7 @@
       </c>
       <c r="K239" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/13.5</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/13.4</t>
         </is>
       </c>
       <c r="L239" s="2">
@@ -17796,18 +17789,26 @@
       </c>
       <c r="M239" s="1" t="inlineStr">
         <is>
-          <t>++1.050SW1</t>
+          <t>++1.050TT1</t>
         </is>
       </c>
       <c r="N239" s="1" t="n"/>
       <c r="O239" s="1" t="inlineStr">
         <is>
-          <t>-BG01</t>
+          <t>-XD01A</t>
         </is>
       </c>
       <c r="P239" s="1" t="n"/>
-      <c r="Q239" s="1" t="n"/>
-      <c r="R239" s="1" t="n"/>
+      <c r="Q239" s="1" t="inlineStr">
+        <is>
+          <t>WEIDMÜLLER</t>
+        </is>
+      </c>
+      <c r="R239" s="1" t="inlineStr">
+        <is>
+          <t>IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
@@ -17822,7 +17823,7 @@
       <c r="C240" s="1" t="n"/>
       <c r="D240" s="1" t="inlineStr">
         <is>
-          <t>-XD321</t>
+          <t>-XD322</t>
         </is>
       </c>
       <c r="E240" s="1" t="n"/>
@@ -17838,8 +17839,8 @@
       </c>
       <c r="H240" s="1" t="inlineStr">
         <is>
-          <t>-WD++CC1-XD321/
- ++1.050TT1-XD01A</t>
+          <t>-WD++CC1-XD322/
+ ++1.060SW2-BG01-XD1B-XD1</t>
         </is>
       </c>
       <c r="I240" s="1" t="inlineStr">
@@ -17854,7 +17855,7 @@
       </c>
       <c r="K240" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/13.4</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/14.2</t>
         </is>
       </c>
       <c r="L240" s="2">
@@ -17863,26 +17864,18 @@
       </c>
       <c r="M240" s="1" t="inlineStr">
         <is>
-          <t>++1.050TT1</t>
+          <t>++1.060SW2</t>
         </is>
       </c>
       <c r="N240" s="1" t="n"/>
       <c r="O240" s="1" t="inlineStr">
         <is>
-          <t>-XD01A</t>
+          <t>-BG01</t>
         </is>
       </c>
       <c r="P240" s="1" t="n"/>
-      <c r="Q240" s="1" t="inlineStr">
-        <is>
-          <t>WEIDMÜLLER</t>
-        </is>
-      </c>
-      <c r="R240" s="1" t="inlineStr">
-        <is>
-          <t>IE-CD-V14MRJ/VAPM24V-C</t>
-        </is>
-      </c>
+      <c r="Q240" s="1" t="n"/>
+      <c r="R240" s="1" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="2">
@@ -17914,7 +17907,7 @@
       <c r="H241" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD322/
- ++1.060SW2-BG01-XD1B-XD1</t>
+ ++1.060TT1-XD01A</t>
         </is>
       </c>
       <c r="I241" s="1" t="inlineStr">
@@ -17929,7 +17922,7 @@
       </c>
       <c r="K241" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/14.2</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/14.4</t>
         </is>
       </c>
       <c r="L241" s="2">
@@ -17938,18 +17931,26 @@
       </c>
       <c r="M241" s="1" t="inlineStr">
         <is>
-          <t>++1.060SW2</t>
+          <t>++1.060TT1</t>
         </is>
       </c>
       <c r="N241" s="1" t="n"/>
       <c r="O241" s="1" t="inlineStr">
         <is>
-          <t>-BG01</t>
+          <t>-XD01A</t>
         </is>
       </c>
       <c r="P241" s="1" t="n"/>
-      <c r="Q241" s="1" t="n"/>
-      <c r="R241" s="1" t="n"/>
+      <c r="Q241" s="1" t="inlineStr">
+        <is>
+          <t>WEIDMÜLLER</t>
+        </is>
+      </c>
+      <c r="R241" s="1" t="inlineStr">
+        <is>
+          <t>IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
@@ -17981,7 +17982,7 @@
       <c r="H242" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD322/
- ++1.060TT1-XD01A</t>
+ ++1.090TT1+VI1-KF53-XD01</t>
         </is>
       </c>
       <c r="I242" s="1" t="inlineStr">
@@ -17996,7 +17997,7 @@
       </c>
       <c r="K242" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/14.4</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/14.5</t>
         </is>
       </c>
       <c r="L242" s="2">
@@ -18005,24 +18006,32 @@
       </c>
       <c r="M242" s="1" t="inlineStr">
         <is>
-          <t>++1.060TT1</t>
-        </is>
-      </c>
-      <c r="N242" s="1" t="n"/>
+          <t>++1.090TT1</t>
+        </is>
+      </c>
+      <c r="N242" s="1" t="inlineStr">
+        <is>
+          <t>+VI1</t>
+        </is>
+      </c>
       <c r="O242" s="1" t="inlineStr">
         <is>
-          <t>-XD01A</t>
-        </is>
-      </c>
-      <c r="P242" s="1" t="n"/>
+          <t>-KF53</t>
+        </is>
+      </c>
+      <c r="P242" s="1" t="inlineStr">
+        <is>
+          <t>-XD01</t>
+        </is>
+      </c>
       <c r="Q242" s="1" t="inlineStr">
         <is>
-          <t>WEIDMÜLLER</t>
+          <t>MURRELEKTRONIK</t>
         </is>
       </c>
       <c r="R242" s="1" t="inlineStr">
         <is>
-          <t>IE-CD-V14MRJ/VAPM24V-C</t>
+          <t>MVK+ MPNIO DI8 DI8 IRT</t>
         </is>
       </c>
     </row>
@@ -18056,7 +18065,7 @@
       <c r="H243" s="1" t="inlineStr">
         <is>
           <t>-WD++CC1-XD322/
- ++1.090TT1+VI1-KF53-XD01</t>
+ ++1.090TT1-XD01A</t>
         </is>
       </c>
       <c r="I243" s="1" t="inlineStr">
@@ -18071,7 +18080,7 @@
       </c>
       <c r="K243" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/14.5</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/14.7</t>
         </is>
       </c>
       <c r="L243" s="2">
@@ -18083,29 +18092,21 @@
           <t>++1.090TT1</t>
         </is>
       </c>
-      <c r="N243" s="1" t="inlineStr">
-        <is>
-          <t>+VI1</t>
-        </is>
-      </c>
+      <c r="N243" s="1" t="n"/>
       <c r="O243" s="1" t="inlineStr">
         <is>
-          <t>-KF53</t>
-        </is>
-      </c>
-      <c r="P243" s="1" t="inlineStr">
-        <is>
-          <t>-XD01</t>
-        </is>
-      </c>
+          <t>-XD01A</t>
+        </is>
+      </c>
+      <c r="P243" s="1" t="n"/>
       <c r="Q243" s="1" t="inlineStr">
         <is>
-          <t>MURRELEKTRONIK</t>
+          <t>WEIDMÜLLER</t>
         </is>
       </c>
       <c r="R243" s="1" t="inlineStr">
         <is>
-          <t>MVK+ MPNIO DI8 DI8 IRT</t>
+          <t>IE-CD-V14MRJ/VAPM24V-C</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18123,7 @@
       <c r="C244" s="1" t="n"/>
       <c r="D244" s="1" t="inlineStr">
         <is>
-          <t>-XD322</t>
+          <t>-XD323</t>
         </is>
       </c>
       <c r="E244" s="1" t="n"/>
@@ -18138,8 +18139,8 @@
       </c>
       <c r="H244" s="1" t="inlineStr">
         <is>
-          <t>-WD++CC1-XD322/
- ++1.090TT1-XD01A</t>
+          <t>-WD++CC1-XD323/
+ ++2.110SW1+VI1-KF41.0-X0</t>
         </is>
       </c>
       <c r="I244" s="1" t="inlineStr">
@@ -18154,7 +18155,7 @@
       </c>
       <c r="K244" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/14.7</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/15.2</t>
         </is>
       </c>
       <c r="L244" s="2">
@@ -18163,24 +18164,32 @@
       </c>
       <c r="M244" s="1" t="inlineStr">
         <is>
-          <t>++1.090TT1</t>
-        </is>
-      </c>
-      <c r="N244" s="1" t="n"/>
+          <t>++2.110SW1</t>
+        </is>
+      </c>
+      <c r="N244" s="1" t="inlineStr">
+        <is>
+          <t>+VI1</t>
+        </is>
+      </c>
       <c r="O244" s="1" t="inlineStr">
         <is>
-          <t>-XD01A</t>
-        </is>
-      </c>
-      <c r="P244" s="1" t="n"/>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="P244" s="1" t="inlineStr">
+        <is>
+          <t>-X0</t>
+        </is>
+      </c>
       <c r="Q244" s="1" t="inlineStr">
         <is>
-          <t>WEIDMÜLLER</t>
+          <t>FESTO</t>
         </is>
       </c>
       <c r="R244" s="1" t="inlineStr">
         <is>
-          <t>IE-CD-V14MRJ/VAPM24V-C</t>
+          <t>CPX-M-FB44</t>
         </is>
       </c>
     </row>
@@ -18191,45 +18200,49 @@
       </c>
       <c r="B245" s="1" t="inlineStr">
         <is>
-          <t>++CC1</t>
+          <t>++CP1</t>
         </is>
       </c>
       <c r="C245" s="1" t="n"/>
       <c r="D245" s="1" t="inlineStr">
         <is>
-          <t>-XD323</t>
-        </is>
-      </c>
-      <c r="E245" s="1" t="n"/>
+          <t>-0EA01</t>
+        </is>
+      </c>
+      <c r="E245" s="1" t="inlineStr">
+        <is>
+          <t>XO</t>
+        </is>
+      </c>
       <c r="F245" s="1" t="inlineStr">
         <is>
-          <t>PHOENIX</t>
+          <t>RITTAL</t>
         </is>
       </c>
       <c r="G245" s="1" t="inlineStr">
         <is>
-          <t>STS 4-TWIN/L</t>
+          <t>SZ.2500110</t>
         </is>
       </c>
       <c r="H245" s="1" t="inlineStr">
         <is>
-          <t>-WD++CC1-XD323/
- ++2.110SW1+VI1-KF41.0-X0</t>
+          <t>-WD++CP1-0EA01-XO/
+ ++CC1-0EA01-XI</t>
         </is>
       </c>
       <c r="I245" s="1" t="inlineStr">
         <is>
-          <t>ÖLFLEX CLASSIC 110 G</t>
+          <t>ÖLFLEX® CLASSIC 110</t>
         </is>
       </c>
       <c r="J245" s="1" t="inlineStr">
         <is>
-          <t>5G2,5 mm²</t>
+          <t>2x1,5 mm²</t>
         </is>
       </c>
       <c r="K245" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/15.2</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/7.2</t>
         </is>
       </c>
       <c r="L245" s="2">
@@ -18238,32 +18251,28 @@
       </c>
       <c r="M245" s="1" t="inlineStr">
         <is>
-          <t>++2.110SW1</t>
-        </is>
-      </c>
-      <c r="N245" s="1" t="inlineStr">
-        <is>
-          <t>+VI1</t>
-        </is>
-      </c>
+          <t>++CC1</t>
+        </is>
+      </c>
+      <c r="N245" s="1" t="n"/>
       <c r="O245" s="1" t="inlineStr">
         <is>
-          <t>-KF41.0</t>
+          <t>-0EA01</t>
         </is>
       </c>
       <c r="P245" s="1" t="inlineStr">
         <is>
-          <t>-X0</t>
+          <t>XI</t>
         </is>
       </c>
       <c r="Q245" s="1" t="inlineStr">
         <is>
-          <t>FESTO</t>
+          <t>RITTAL</t>
         </is>
       </c>
       <c r="R245" s="1" t="inlineStr">
         <is>
-          <t>CPX-M-FB44</t>
+          <t>SZ.2500110</t>
         </is>
       </c>
     </row>
@@ -18280,43 +18289,39 @@
       <c r="C246" s="1" t="n"/>
       <c r="D246" s="1" t="inlineStr">
         <is>
-          <t>-0EA01</t>
-        </is>
-      </c>
-      <c r="E246" s="1" t="inlineStr">
-        <is>
-          <t>XO</t>
-        </is>
-      </c>
+          <t>-0XD01</t>
+        </is>
+      </c>
+      <c r="E246" s="1" t="n"/>
       <c r="F246" s="1" t="inlineStr">
         <is>
-          <t>RITTAL</t>
+          <t>PHOENIX</t>
         </is>
       </c>
       <c r="G246" s="1" t="inlineStr">
         <is>
-          <t>SZ.2500110</t>
+          <t>STS 4-TWIN/L</t>
         </is>
       </c>
       <c r="H246" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-0EA01-XO/
- ++CC1-0EA01-XI</t>
+          <t>-WD++CP1-0XD01/
+ ++1.010SW1+JB9-0XD01</t>
         </is>
       </c>
       <c r="I246" s="1" t="inlineStr">
         <is>
-          <t>ÖLFLEX® CLASSIC 110</t>
+          <t>ÖLFLEX CLASSIC 110 G</t>
         </is>
       </c>
       <c r="J246" s="1" t="inlineStr">
         <is>
-          <t>2x1,5 mm²</t>
+          <t>3G1,5 mm²</t>
         </is>
       </c>
       <c r="K246" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/7.2</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/5.2</t>
         </is>
       </c>
       <c r="L246" s="2">
@@ -18325,28 +18330,28 @@
       </c>
       <c r="M246" s="1" t="inlineStr">
         <is>
-          <t>++CC1</t>
-        </is>
-      </c>
-      <c r="N246" s="1" t="n"/>
+          <t>++1.010SW1</t>
+        </is>
+      </c>
+      <c r="N246" s="1" t="inlineStr">
+        <is>
+          <t>+JB9</t>
+        </is>
+      </c>
       <c r="O246" s="1" t="inlineStr">
         <is>
-          <t>-0EA01</t>
-        </is>
-      </c>
-      <c r="P246" s="1" t="inlineStr">
-        <is>
-          <t>XI</t>
-        </is>
-      </c>
+          <t>-0XD01</t>
+        </is>
+      </c>
+      <c r="P246" s="1" t="n"/>
       <c r="Q246" s="1" t="inlineStr">
         <is>
-          <t>RITTAL</t>
+          <t>WAGO</t>
         </is>
       </c>
       <c r="R246" s="1" t="inlineStr">
         <is>
-          <t>SZ.2500110</t>
+          <t>221-415</t>
         </is>
       </c>
     </row>
@@ -18380,7 +18385,7 @@
       <c r="H247" s="1" t="inlineStr">
         <is>
           <t>-WD++CP1-0XD01/
- ++1.010SW1+JB9-0XD01</t>
+ ++1.010SW2+JB9-0XD01</t>
         </is>
       </c>
       <c r="I247" s="1" t="inlineStr">
@@ -18395,7 +18400,7 @@
       </c>
       <c r="K247" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/5.2</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/5.3</t>
         </is>
       </c>
       <c r="L247" s="2">
@@ -18404,7 +18409,7 @@
       </c>
       <c r="M247" s="1" t="inlineStr">
         <is>
-          <t>++1.010SW1</t>
+          <t>++1.010SW2</t>
         </is>
       </c>
       <c r="N247" s="1" t="inlineStr">
@@ -18459,7 +18464,7 @@
       <c r="H248" s="1" t="inlineStr">
         <is>
           <t>-WD++CP1-0XD01/
- ++1.010SW2+JB9-0XD01</t>
+ ++1.050SW1+JB9-0XD01</t>
         </is>
       </c>
       <c r="I248" s="1" t="inlineStr">
@@ -18474,7 +18479,7 @@
       </c>
       <c r="K248" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/5.3</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/5.4</t>
         </is>
       </c>
       <c r="L248" s="2">
@@ -18483,7 +18488,7 @@
       </c>
       <c r="M248" s="1" t="inlineStr">
         <is>
-          <t>++1.010SW2</t>
+          <t>++1.050SW1</t>
         </is>
       </c>
       <c r="N248" s="1" t="inlineStr">
@@ -18538,7 +18543,7 @@
       <c r="H249" s="1" t="inlineStr">
         <is>
           <t>-WD++CP1-0XD01/
- ++1.050SW1+JB9-0XD01</t>
+ ++1.060SW1+JB9-0XD01</t>
         </is>
       </c>
       <c r="I249" s="1" t="inlineStr">
@@ -18553,7 +18558,7 @@
       </c>
       <c r="K249" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/5.4</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/5.5</t>
         </is>
       </c>
       <c r="L249" s="2">
@@ -18562,7 +18567,7 @@
       </c>
       <c r="M249" s="1" t="inlineStr">
         <is>
-          <t>++1.050SW1</t>
+          <t>++1.060SW1</t>
         </is>
       </c>
       <c r="N249" s="1" t="inlineStr">
@@ -18617,7 +18622,7 @@
       <c r="H250" s="1" t="inlineStr">
         <is>
           <t>-WD++CP1-0XD01/
- ++1.060SW1+JB9-0XD01</t>
+ ++1.060SW2+JB9-0XD01</t>
         </is>
       </c>
       <c r="I250" s="1" t="inlineStr">
@@ -18632,7 +18637,7 @@
       </c>
       <c r="K250" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/5.5</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/5.6</t>
         </is>
       </c>
       <c r="L250" s="2">
@@ -18641,7 +18646,7 @@
       </c>
       <c r="M250" s="1" t="inlineStr">
         <is>
-          <t>++1.060SW1</t>
+          <t>++1.060SW2</t>
         </is>
       </c>
       <c r="N250" s="1" t="inlineStr">
@@ -18696,7 +18701,7 @@
       <c r="H251" s="1" t="inlineStr">
         <is>
           <t>-WD++CP1-0XD01/
- ++1.060SW2+JB9-0XD01</t>
+ ++1.070SW1+JB9-0XD01</t>
         </is>
       </c>
       <c r="I251" s="1" t="inlineStr">
@@ -18711,7 +18716,7 @@
       </c>
       <c r="K251" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/5.6</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/5.7</t>
         </is>
       </c>
       <c r="L251" s="2">
@@ -18720,7 +18725,7 @@
       </c>
       <c r="M251" s="1" t="inlineStr">
         <is>
-          <t>++1.060SW2</t>
+          <t>++1.070SW1</t>
         </is>
       </c>
       <c r="N251" s="1" t="inlineStr">
@@ -18775,7 +18780,7 @@
       <c r="H252" s="1" t="inlineStr">
         <is>
           <t>-WD++CP1-0XD01/
- ++1.070SW1+JB9-0XD01</t>
+ ++CC1-0XD01.2</t>
         </is>
       </c>
       <c r="I252" s="1" t="inlineStr">
@@ -18790,7 +18795,7 @@
       </c>
       <c r="K252" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/5.7</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/4.5</t>
         </is>
       </c>
       <c r="L252" s="2">
@@ -18799,14 +18804,10 @@
       </c>
       <c r="M252" s="1" t="inlineStr">
         <is>
-          <t>++1.070SW1</t>
-        </is>
-      </c>
-      <c r="N252" s="1" t="inlineStr">
-        <is>
-          <t>+JB9</t>
-        </is>
-      </c>
+          <t>++CC1</t>
+        </is>
+      </c>
+      <c r="N252" s="1" t="n"/>
       <c r="O252" s="1" t="inlineStr">
         <is>
           <t>-0XD01</t>
@@ -18815,12 +18816,12 @@
       <c r="P252" s="1" t="n"/>
       <c r="Q252" s="1" t="inlineStr">
         <is>
-          <t>WAGO</t>
+          <t>PHOENIX</t>
         </is>
       </c>
       <c r="R252" s="1" t="inlineStr">
         <is>
-          <t>221-415</t>
+          <t>STS 4-TWIN/L</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18855,7 @@
       <c r="H253" s="1" t="inlineStr">
         <is>
           <t>-WD++CP1-0XD01/
- ++CC1-0XD01.2</t>
+ ++CC1-0XD01.3</t>
         </is>
       </c>
       <c r="I253" s="1" t="inlineStr">
@@ -18869,7 +18870,7 @@
       </c>
       <c r="K253" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/4.5</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/4.7</t>
         </is>
       </c>
       <c r="L253" s="2">
@@ -18912,7 +18913,7 @@
       <c r="C254" s="1" t="n"/>
       <c r="D254" s="1" t="inlineStr">
         <is>
-          <t>-FC2</t>
+          <t>-FC4</t>
         </is>
       </c>
       <c r="E254" s="1" t="n"/>
@@ -18928,8 +18929,8 @@
       </c>
       <c r="H254" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC2/
- ++1.010SW1-A7-X1</t>
+          <t>-WD++CP1-FC4/
+ ++1.010IR1+RC1-XD0</t>
         </is>
       </c>
       <c r="I254" s="1" t="inlineStr">
@@ -18939,12 +18940,12 @@
       </c>
       <c r="J254" s="1" t="inlineStr">
         <is>
-          <t>5G2,5 mm²</t>
+          <t>4G4 mm²</t>
         </is>
       </c>
       <c r="K254" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/13.3</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/13.6</t>
         </is>
       </c>
       <c r="L254" s="2">
@@ -18953,13 +18954,17 @@
       </c>
       <c r="M254" s="1" t="inlineStr">
         <is>
-          <t>++1.010SW1</t>
-        </is>
-      </c>
-      <c r="N254" s="1" t="n"/>
+          <t>++1.010IR1</t>
+        </is>
+      </c>
+      <c r="N254" s="1" t="inlineStr">
+        <is>
+          <t>+RC1</t>
+        </is>
+      </c>
       <c r="O254" s="1" t="inlineStr">
         <is>
-          <t>-A7</t>
+          <t>-XD0</t>
         </is>
       </c>
       <c r="P254" s="1" t="n"/>
@@ -18979,7 +18984,7 @@
       <c r="C255" s="1" t="n"/>
       <c r="D255" s="1" t="inlineStr">
         <is>
-          <t>-FC3</t>
+          <t>-FC5</t>
         </is>
       </c>
       <c r="E255" s="1" t="n"/>
@@ -18995,8 +19000,8 @@
       </c>
       <c r="H255" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC3/
- ++1.010TT1+DU1-TA01-X1</t>
+          <t>-WD++CP1-FC5/
+ ++1.035IR1+RC1-XD0</t>
         </is>
       </c>
       <c r="I255" s="1" t="inlineStr">
@@ -19006,12 +19011,12 @@
       </c>
       <c r="J255" s="1" t="inlineStr">
         <is>
-          <t>4G2,5 mm²</t>
+          <t>4G4 mm²</t>
         </is>
       </c>
       <c r="K255" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/13.4</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/13.7</t>
         </is>
       </c>
       <c r="L255" s="2">
@@ -19020,34 +19025,22 @@
       </c>
       <c r="M255" s="1" t="inlineStr">
         <is>
-          <t>++1.010TT1</t>
+          <t>++1.035IR1</t>
         </is>
       </c>
       <c r="N255" s="1" t="inlineStr">
         <is>
-          <t>+DU1</t>
+          <t>+RC1</t>
         </is>
       </c>
       <c r="O255" s="1" t="inlineStr">
         <is>
-          <t>-TA01</t>
-        </is>
-      </c>
-      <c r="P255" s="1" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-      <c r="Q255" s="1" t="inlineStr">
-        <is>
-          <t>SEW</t>
-        </is>
-      </c>
-      <c r="R255" s="1" t="inlineStr">
-        <is>
-          <t>PHC21A-A040M1-E21A-00/S11</t>
-        </is>
-      </c>
+          <t>-XD0</t>
+        </is>
+      </c>
+      <c r="P255" s="1" t="n"/>
+      <c r="Q255" s="1" t="n"/>
+      <c r="R255" s="1" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="2">
@@ -19062,7 +19055,7 @@
       <c r="C256" s="1" t="n"/>
       <c r="D256" s="1" t="inlineStr">
         <is>
-          <t>-FC4</t>
+          <t>-FC6</t>
         </is>
       </c>
       <c r="E256" s="1" t="n"/>
@@ -19078,8 +19071,8 @@
       </c>
       <c r="H256" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC4/
- ++1.010IR1+RC1-XD0</t>
+          <t>-WD++CP1-FC6/
+ ++1.050IR1+RC1-XD0</t>
         </is>
       </c>
       <c r="I256" s="1" t="inlineStr">
@@ -19094,7 +19087,7 @@
       </c>
       <c r="K256" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/13.6</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/14.1</t>
         </is>
       </c>
       <c r="L256" s="2">
@@ -19103,7 +19096,7 @@
       </c>
       <c r="M256" s="1" t="inlineStr">
         <is>
-          <t>++1.010IR1</t>
+          <t>++1.050IR1</t>
         </is>
       </c>
       <c r="N256" s="1" t="inlineStr">
@@ -19133,7 +19126,7 @@
       <c r="C257" s="1" t="n"/>
       <c r="D257" s="1" t="inlineStr">
         <is>
-          <t>-FC5</t>
+          <t>-FC7</t>
         </is>
       </c>
       <c r="E257" s="1" t="n"/>
@@ -19149,8 +19142,8 @@
       </c>
       <c r="H257" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC5/
- ++1.035IR1+RC1-XD0</t>
+          <t>-WD++CP1-FC7/
+ ++1.050IR2+RC1-XD0</t>
         </is>
       </c>
       <c r="I257" s="1" t="inlineStr">
@@ -19165,7 +19158,7 @@
       </c>
       <c r="K257" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/13.7</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/14.3</t>
         </is>
       </c>
       <c r="L257" s="2">
@@ -19174,7 +19167,7 @@
       </c>
       <c r="M257" s="1" t="inlineStr">
         <is>
-          <t>++1.035IR1</t>
+          <t>++1.050IR2</t>
         </is>
       </c>
       <c r="N257" s="1" t="inlineStr">
@@ -19204,7 +19197,7 @@
       <c r="C258" s="1" t="n"/>
       <c r="D258" s="1" t="inlineStr">
         <is>
-          <t>-FC6</t>
+          <t>-FC8</t>
         </is>
       </c>
       <c r="E258" s="1" t="n"/>
@@ -19220,8 +19213,8 @@
       </c>
       <c r="H258" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC6/
- ++1.050IR1+RC1-XD0</t>
+          <t>-WD++CP1-FC8/
+ ++1.060SW1-A7-X1</t>
         </is>
       </c>
       <c r="I258" s="1" t="inlineStr">
@@ -19231,12 +19224,12 @@
       </c>
       <c r="J258" s="1" t="inlineStr">
         <is>
-          <t>4G4 mm²</t>
+          <t>5G2,5 mm²</t>
         </is>
       </c>
       <c r="K258" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/14.1</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/14.4</t>
         </is>
       </c>
       <c r="L258" s="2">
@@ -19245,17 +19238,13 @@
       </c>
       <c r="M258" s="1" t="inlineStr">
         <is>
-          <t>++1.050IR1</t>
-        </is>
-      </c>
-      <c r="N258" s="1" t="inlineStr">
-        <is>
-          <t>+RC1</t>
-        </is>
-      </c>
+          <t>++1.060SW1</t>
+        </is>
+      </c>
+      <c r="N258" s="1" t="n"/>
       <c r="O258" s="1" t="inlineStr">
         <is>
-          <t>-XD0</t>
+          <t>-A7</t>
         </is>
       </c>
       <c r="P258" s="1" t="n"/>
@@ -19275,7 +19264,7 @@
       <c r="C259" s="1" t="n"/>
       <c r="D259" s="1" t="inlineStr">
         <is>
-          <t>-FC7</t>
+          <t>-FC9</t>
         </is>
       </c>
       <c r="E259" s="1" t="n"/>
@@ -19291,8 +19280,8 @@
       </c>
       <c r="H259" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC7/
- ++1.050IR2+RC1-XD0</t>
+          <t>-WD++CP1-FC9/
+ ++1.060TT1+DU1-TA01-X1</t>
         </is>
       </c>
       <c r="I259" s="1" t="inlineStr">
@@ -19302,12 +19291,12 @@
       </c>
       <c r="J259" s="1" t="inlineStr">
         <is>
-          <t>4G4 mm²</t>
+          <t>4G2,5 mm²</t>
         </is>
       </c>
       <c r="K259" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/14.3</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/14.6</t>
         </is>
       </c>
       <c r="L259" s="2">
@@ -19316,22 +19305,34 @@
       </c>
       <c r="M259" s="1" t="inlineStr">
         <is>
-          <t>++1.050IR2</t>
+          <t>++1.060TT1</t>
         </is>
       </c>
       <c r="N259" s="1" t="inlineStr">
         <is>
-          <t>+RC1</t>
+          <t>+DU1</t>
         </is>
       </c>
       <c r="O259" s="1" t="inlineStr">
         <is>
-          <t>-XD0</t>
-        </is>
-      </c>
-      <c r="P259" s="1" t="n"/>
-      <c r="Q259" s="1" t="n"/>
-      <c r="R259" s="1" t="n"/>
+          <t>-TA01</t>
+        </is>
+      </c>
+      <c r="P259" s="1" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+      <c r="Q259" s="1" t="inlineStr">
+        <is>
+          <t>SEW</t>
+        </is>
+      </c>
+      <c r="R259" s="1" t="inlineStr">
+        <is>
+          <t>PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
@@ -19346,7 +19347,7 @@
       <c r="C260" s="1" t="n"/>
       <c r="D260" s="1" t="inlineStr">
         <is>
-          <t>-FC8</t>
+          <t>-FC10</t>
         </is>
       </c>
       <c r="E260" s="1" t="n"/>
@@ -19362,8 +19363,8 @@
       </c>
       <c r="H260" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC8/
- ++1.060SW1-A7-X1</t>
+          <t>-WD++CP1-FC10/
+ ++1.060IR1+RC1-XD0</t>
         </is>
       </c>
       <c r="I260" s="1" t="inlineStr">
@@ -19373,12 +19374,12 @@
       </c>
       <c r="J260" s="1" t="inlineStr">
         <is>
-          <t>5G2,5 mm²</t>
+          <t>4G4 mm²</t>
         </is>
       </c>
       <c r="K260" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/14.4</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/14.7</t>
         </is>
       </c>
       <c r="L260" s="2">
@@ -19387,13 +19388,17 @@
       </c>
       <c r="M260" s="1" t="inlineStr">
         <is>
-          <t>++1.060SW1</t>
-        </is>
-      </c>
-      <c r="N260" s="1" t="n"/>
+          <t>++1.060IR1</t>
+        </is>
+      </c>
+      <c r="N260" s="1" t="inlineStr">
+        <is>
+          <t>+RC1</t>
+        </is>
+      </c>
       <c r="O260" s="1" t="inlineStr">
         <is>
-          <t>-A7</t>
+          <t>-XD0</t>
         </is>
       </c>
       <c r="P260" s="1" t="n"/>
@@ -19413,7 +19418,7 @@
       <c r="C261" s="1" t="n"/>
       <c r="D261" s="1" t="inlineStr">
         <is>
-          <t>-FC9</t>
+          <t>-FC11</t>
         </is>
       </c>
       <c r="E261" s="1" t="n"/>
@@ -19429,8 +19434,8 @@
       </c>
       <c r="H261" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC9/
- ++1.060TT1+DU1-TA01-X1</t>
+          <t>-WD++CP1-FC11/
+ ++1.070SW1-A7-X1</t>
         </is>
       </c>
       <c r="I261" s="1" t="inlineStr">
@@ -19440,12 +19445,12 @@
       </c>
       <c r="J261" s="1" t="inlineStr">
         <is>
-          <t>4G2,5 mm²</t>
+          <t>5G2,5 mm²</t>
         </is>
       </c>
       <c r="K261" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/14.6</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/15.1</t>
         </is>
       </c>
       <c r="L261" s="2">
@@ -19454,34 +19459,18 @@
       </c>
       <c r="M261" s="1" t="inlineStr">
         <is>
-          <t>++1.060TT1</t>
-        </is>
-      </c>
-      <c r="N261" s="1" t="inlineStr">
-        <is>
-          <t>+DU1</t>
-        </is>
-      </c>
+          <t>++1.070SW1</t>
+        </is>
+      </c>
+      <c r="N261" s="1" t="n"/>
       <c r="O261" s="1" t="inlineStr">
         <is>
-          <t>-TA01</t>
-        </is>
-      </c>
-      <c r="P261" s="1" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-      <c r="Q261" s="1" t="inlineStr">
-        <is>
-          <t>SEW</t>
-        </is>
-      </c>
-      <c r="R261" s="1" t="inlineStr">
-        <is>
-          <t>PHC21A-A040M1-E21A-00/S11</t>
-        </is>
-      </c>
+          <t>-A7</t>
+        </is>
+      </c>
+      <c r="P261" s="1" t="n"/>
+      <c r="Q261" s="1" t="n"/>
+      <c r="R261" s="1" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="2">
@@ -19496,7 +19485,7 @@
       <c r="C262" s="1" t="n"/>
       <c r="D262" s="1" t="inlineStr">
         <is>
-          <t>-FC10</t>
+          <t>-FC12</t>
         </is>
       </c>
       <c r="E262" s="1" t="n"/>
@@ -19512,8 +19501,8 @@
       </c>
       <c r="H262" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC10/
- ++1.060IR1+RC1-XD0</t>
+          <t>-WD++CP1-FC12/
+ ++1.070IR1+RC1-XD0</t>
         </is>
       </c>
       <c r="I262" s="1" t="inlineStr">
@@ -19528,7 +19517,7 @@
       </c>
       <c r="K262" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/14.7</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/15.3</t>
         </is>
       </c>
       <c r="L262" s="2">
@@ -19537,7 +19526,7 @@
       </c>
       <c r="M262" s="1" t="inlineStr">
         <is>
-          <t>++1.060IR1</t>
+          <t>++1.070IR1</t>
         </is>
       </c>
       <c r="N262" s="1" t="inlineStr">
@@ -19567,7 +19556,7 @@
       <c r="C263" s="1" t="n"/>
       <c r="D263" s="1" t="inlineStr">
         <is>
-          <t>-FC11</t>
+          <t>-FC13</t>
         </is>
       </c>
       <c r="E263" s="1" t="n"/>
@@ -19583,8 +19572,8 @@
       </c>
       <c r="H263" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC11/
- ++1.070SW1-A7-X1</t>
+          <t>-WD++CP1-FC13/
+ ++1.090TT1+DU1-TA01-X1</t>
         </is>
       </c>
       <c r="I263" s="1" t="inlineStr">
@@ -19594,12 +19583,12 @@
       </c>
       <c r="J263" s="1" t="inlineStr">
         <is>
-          <t>5G2,5 mm²</t>
+          <t>4G2,5 mm²</t>
         </is>
       </c>
       <c r="K263" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/15.1</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/15.4</t>
         </is>
       </c>
       <c r="L263" s="2">
@@ -19608,18 +19597,34 @@
       </c>
       <c r="M263" s="1" t="inlineStr">
         <is>
-          <t>++1.070SW1</t>
-        </is>
-      </c>
-      <c r="N263" s="1" t="n"/>
+          <t>++1.090TT1</t>
+        </is>
+      </c>
+      <c r="N263" s="1" t="inlineStr">
+        <is>
+          <t>+DU1</t>
+        </is>
+      </c>
       <c r="O263" s="1" t="inlineStr">
         <is>
-          <t>-A7</t>
-        </is>
-      </c>
-      <c r="P263" s="1" t="n"/>
-      <c r="Q263" s="1" t="n"/>
-      <c r="R263" s="1" t="n"/>
+          <t>-TA01</t>
+        </is>
+      </c>
+      <c r="P263" s="1" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+      <c r="Q263" s="1" t="inlineStr">
+        <is>
+          <t>SEW</t>
+        </is>
+      </c>
+      <c r="R263" s="1" t="inlineStr">
+        <is>
+          <t>PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
@@ -19634,7 +19639,7 @@
       <c r="C264" s="1" t="n"/>
       <c r="D264" s="1" t="inlineStr">
         <is>
-          <t>-FC12</t>
+          <t>-FC14</t>
         </is>
       </c>
       <c r="E264" s="1" t="n"/>
@@ -19650,8 +19655,8 @@
       </c>
       <c r="H264" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC12/
- ++1.070IR1+RC1-XD0</t>
+          <t>-WD++CP1-FC14/
+ ++1.090IR1+RC1-XD0</t>
         </is>
       </c>
       <c r="I264" s="1" t="inlineStr">
@@ -19666,7 +19671,7 @@
       </c>
       <c r="K264" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/15.3</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/15.6</t>
         </is>
       </c>
       <c r="L264" s="2">
@@ -19675,7 +19680,7 @@
       </c>
       <c r="M264" s="1" t="inlineStr">
         <is>
-          <t>++1.070IR1</t>
+          <t>++1.090IR1</t>
         </is>
       </c>
       <c r="N264" s="1" t="inlineStr">
@@ -19705,7 +19710,7 @@
       <c r="C265" s="1" t="n"/>
       <c r="D265" s="1" t="inlineStr">
         <is>
-          <t>-FC13</t>
+          <t>-FC15</t>
         </is>
       </c>
       <c r="E265" s="1" t="n"/>
@@ -19721,8 +19726,8 @@
       </c>
       <c r="H265" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC13/
- ++1.090TT1+DU1-TA01-X1</t>
+          <t>-WD++CP1-FC15/
+ ++1.090IR2+RC1-XD0</t>
         </is>
       </c>
       <c r="I265" s="1" t="inlineStr">
@@ -19732,12 +19737,12 @@
       </c>
       <c r="J265" s="1" t="inlineStr">
         <is>
-          <t>4G2,5 mm²</t>
+          <t>4G4 mm²</t>
         </is>
       </c>
       <c r="K265" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/15.4</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/15.7</t>
         </is>
       </c>
       <c r="L265" s="2">
@@ -19746,34 +19751,22 @@
       </c>
       <c r="M265" s="1" t="inlineStr">
         <is>
-          <t>++1.090TT1</t>
+          <t>++1.090IR2</t>
         </is>
       </c>
       <c r="N265" s="1" t="inlineStr">
         <is>
-          <t>+DU1</t>
+          <t>+RC1</t>
         </is>
       </c>
       <c r="O265" s="1" t="inlineStr">
         <is>
-          <t>-TA01</t>
-        </is>
-      </c>
-      <c r="P265" s="1" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-      <c r="Q265" s="1" t="inlineStr">
-        <is>
-          <t>SEW</t>
-        </is>
-      </c>
-      <c r="R265" s="1" t="inlineStr">
-        <is>
-          <t>PHC21A-A040M1-E21A-00/S11</t>
-        </is>
-      </c>
+          <t>-XD0</t>
+        </is>
+      </c>
+      <c r="P265" s="1" t="n"/>
+      <c r="Q265" s="1" t="n"/>
+      <c r="R265" s="1" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="2">
@@ -19788,7 +19781,7 @@
       <c r="C266" s="1" t="n"/>
       <c r="D266" s="1" t="inlineStr">
         <is>
-          <t>-FC14</t>
+          <t>-FC16</t>
         </is>
       </c>
       <c r="E266" s="1" t="n"/>
@@ -19804,8 +19797,8 @@
       </c>
       <c r="H266" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC14/
- ++1.090IR1+RC1-XD0</t>
+          <t>-WD++CP1-FC16/
+ ++1.100IR1+RC1-XD0</t>
         </is>
       </c>
       <c r="I266" s="1" t="inlineStr">
@@ -19820,7 +19813,7 @@
       </c>
       <c r="K266" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/15.6</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/16.1</t>
         </is>
       </c>
       <c r="L266" s="2">
@@ -19829,7 +19822,7 @@
       </c>
       <c r="M266" s="1" t="inlineStr">
         <is>
-          <t>++1.090IR1</t>
+          <t>++1.100IR1</t>
         </is>
       </c>
       <c r="N266" s="1" t="inlineStr">
@@ -19859,7 +19852,7 @@
       <c r="C267" s="1" t="n"/>
       <c r="D267" s="1" t="inlineStr">
         <is>
-          <t>-FC15</t>
+          <t>-FC20</t>
         </is>
       </c>
       <c r="E267" s="1" t="n"/>
@@ -19875,8 +19868,8 @@
       </c>
       <c r="H267" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC15/
- ++1.090IR2+RC1-XD0</t>
+          <t>-WD++CP1-FC20/
+ ++1.010IR1+CG1-XD0</t>
         </is>
       </c>
       <c r="I267" s="1" t="inlineStr">
@@ -19886,12 +19879,12 @@
       </c>
       <c r="J267" s="1" t="inlineStr">
         <is>
-          <t>4G4 mm²</t>
+          <t>5G4 mm²</t>
         </is>
       </c>
       <c r="K267" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/15.7</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/18.1</t>
         </is>
       </c>
       <c r="L267" s="2">
@@ -19900,12 +19893,12 @@
       </c>
       <c r="M267" s="1" t="inlineStr">
         <is>
-          <t>++1.090IR2</t>
+          <t>++1.010IR1</t>
         </is>
       </c>
       <c r="N267" s="1" t="inlineStr">
         <is>
-          <t>+RC1</t>
+          <t>+CG1</t>
         </is>
       </c>
       <c r="O267" s="1" t="inlineStr">
@@ -19930,7 +19923,7 @@
       <c r="C268" s="1" t="n"/>
       <c r="D268" s="1" t="inlineStr">
         <is>
-          <t>-FC16</t>
+          <t>-FC21</t>
         </is>
       </c>
       <c r="E268" s="1" t="n"/>
@@ -19946,8 +19939,8 @@
       </c>
       <c r="H268" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC16/
- ++1.100IR1+RC1-XD0</t>
+          <t>-WD++CP1-FC21/
+ ++1.050IR2+CG1-XD0</t>
         </is>
       </c>
       <c r="I268" s="1" t="inlineStr">
@@ -19957,12 +19950,12 @@
       </c>
       <c r="J268" s="1" t="inlineStr">
         <is>
-          <t>4G4 mm²</t>
+          <t>5G4 mm²</t>
         </is>
       </c>
       <c r="K268" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/16.1</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/18.3</t>
         </is>
       </c>
       <c r="L268" s="2">
@@ -19971,12 +19964,12 @@
       </c>
       <c r="M268" s="1" t="inlineStr">
         <is>
-          <t>++1.100IR1</t>
+          <t>++1.050IR2</t>
         </is>
       </c>
       <c r="N268" s="1" t="inlineStr">
         <is>
-          <t>+RC1</t>
+          <t>+CG1</t>
         </is>
       </c>
       <c r="O268" s="1" t="inlineStr">
@@ -20001,7 +19994,7 @@
       <c r="C269" s="1" t="n"/>
       <c r="D269" s="1" t="inlineStr">
         <is>
-          <t>-FC20</t>
+          <t>-FC22</t>
         </is>
       </c>
       <c r="E269" s="1" t="n"/>
@@ -20017,8 +20010,8 @@
       </c>
       <c r="H269" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC20/
- ++1.010IR1+CG1-XD0</t>
+          <t>-WD++CP1-FC22/
+ ++1.050IR2+TD1-TA1-XD1</t>
         </is>
       </c>
       <c r="I269" s="1" t="inlineStr">
@@ -20028,12 +20021,12 @@
       </c>
       <c r="J269" s="1" t="inlineStr">
         <is>
-          <t>5G4 mm²</t>
+          <t>4G2,5 mm²</t>
         </is>
       </c>
       <c r="K269" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/18.1</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/18.4</t>
         </is>
       </c>
       <c r="L269" s="2">
@@ -20042,20 +20035,24 @@
       </c>
       <c r="M269" s="1" t="inlineStr">
         <is>
-          <t>++1.010IR1</t>
+          <t>++1.050IR2</t>
         </is>
       </c>
       <c r="N269" s="1" t="inlineStr">
         <is>
-          <t>+CG1</t>
+          <t>+TD1</t>
         </is>
       </c>
       <c r="O269" s="1" t="inlineStr">
         <is>
-          <t>-XD0</t>
-        </is>
-      </c>
-      <c r="P269" s="1" t="n"/>
+          <t>-TA1</t>
+        </is>
+      </c>
+      <c r="P269" s="1" t="inlineStr">
+        <is>
+          <t>-XD1</t>
+        </is>
+      </c>
       <c r="Q269" s="1" t="n"/>
       <c r="R269" s="1" t="n"/>
     </row>
@@ -20072,7 +20069,7 @@
       <c r="C270" s="1" t="n"/>
       <c r="D270" s="1" t="inlineStr">
         <is>
-          <t>-FC21</t>
+          <t>-FC23</t>
         </is>
       </c>
       <c r="E270" s="1" t="n"/>
@@ -20088,8 +20085,8 @@
       </c>
       <c r="H270" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC21/
- ++1.050IR2+CG1-XD0</t>
+          <t>-WD++CP1-FC23/
+ ++1.060IR1+CG1-XD0</t>
         </is>
       </c>
       <c r="I270" s="1" t="inlineStr">
@@ -20104,7 +20101,7 @@
       </c>
       <c r="K270" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/18.3</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/18.6</t>
         </is>
       </c>
       <c r="L270" s="2">
@@ -20113,7 +20110,7 @@
       </c>
       <c r="M270" s="1" t="inlineStr">
         <is>
-          <t>++1.050IR2</t>
+          <t>++1.060IR1</t>
         </is>
       </c>
       <c r="N270" s="1" t="inlineStr">
@@ -20143,7 +20140,7 @@
       <c r="C271" s="1" t="n"/>
       <c r="D271" s="1" t="inlineStr">
         <is>
-          <t>-FC22</t>
+          <t>-FC24</t>
         </is>
       </c>
       <c r="E271" s="1" t="n"/>
@@ -20159,8 +20156,8 @@
       </c>
       <c r="H271" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC22/
- ++1.050IR2+TD1-TA1-XD1</t>
+          <t>-WD++CP1-FC24/
+ ++1.100IR1+TD1-TA1-XD1</t>
         </is>
       </c>
       <c r="I271" s="1" t="inlineStr">
@@ -20175,7 +20172,7 @@
       </c>
       <c r="K271" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/18.4</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/18.7</t>
         </is>
       </c>
       <c r="L271" s="2">
@@ -20184,7 +20181,7 @@
       </c>
       <c r="M271" s="1" t="inlineStr">
         <is>
-          <t>++1.050IR2</t>
+          <t>++1.100IR1</t>
         </is>
       </c>
       <c r="N271" s="1" t="inlineStr">
@@ -20212,30 +20209,38 @@
       </c>
       <c r="B272" s="1" t="inlineStr">
         <is>
-          <t>++CP1</t>
-        </is>
-      </c>
-      <c r="C272" s="1" t="n"/>
+          <t>++MS1</t>
+        </is>
+      </c>
+      <c r="C272" s="1" t="inlineStr">
+        <is>
+          <t>+VI1</t>
+        </is>
+      </c>
       <c r="D272" s="1" t="inlineStr">
         <is>
-          <t>-FC23</t>
-        </is>
-      </c>
-      <c r="E272" s="1" t="n"/>
+          <t>-KF55</t>
+        </is>
+      </c>
+      <c r="E272" s="1" t="inlineStr">
+        <is>
+          <t>-XD02</t>
+        </is>
+      </c>
       <c r="F272" s="1" t="inlineStr">
         <is>
-          <t>RITTAL</t>
+          <t>MURRELEKTRONIK</t>
         </is>
       </c>
       <c r="G272" s="1" t="inlineStr">
         <is>
-          <t>SV.3418040</t>
+          <t>MVK-MPNIO DI6 DO6 IOL IRT</t>
         </is>
       </c>
       <c r="H272" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC23/
- ++1.060IR1+CG1-XD0</t>
+          <t>-WD++MS1+VI1-KF55-XD02/
+ ++1+VI1-KF56-XD01</t>
         </is>
       </c>
       <c r="I272" s="1" t="inlineStr">
@@ -20245,12 +20250,12 @@
       </c>
       <c r="J272" s="1" t="inlineStr">
         <is>
-          <t>5G4 mm²</t>
+          <t>5G2,5 mm²</t>
         </is>
       </c>
       <c r="K272" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/18.6</t>
+          <t>==L01=DF--.1++MS1+VI1&amp;EFS/1.7</t>
         </is>
       </c>
       <c r="L272" s="2">
@@ -20259,22 +20264,34 @@
       </c>
       <c r="M272" s="1" t="inlineStr">
         <is>
-          <t>++1.060IR1</t>
+          <t>++1</t>
         </is>
       </c>
       <c r="N272" s="1" t="inlineStr">
         <is>
-          <t>+CG1</t>
+          <t>+VI1</t>
         </is>
       </c>
       <c r="O272" s="1" t="inlineStr">
         <is>
-          <t>-XD0</t>
-        </is>
-      </c>
-      <c r="P272" s="1" t="n"/>
-      <c r="Q272" s="1" t="n"/>
-      <c r="R272" s="1" t="n"/>
+          <t>-KF56</t>
+        </is>
+      </c>
+      <c r="P272" s="1" t="inlineStr">
+        <is>
+          <t>-XD01</t>
+        </is>
+      </c>
+      <c r="Q272" s="1" t="inlineStr">
+        <is>
+          <t>MURRELEKTRONIK</t>
+        </is>
+      </c>
+      <c r="R272" s="1" t="inlineStr">
+        <is>
+          <t>MVK+ MPNIO DIO8 DIO8 Push Pull</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2">
@@ -20283,45 +20300,41 @@
       </c>
       <c r="B273" s="1" t="inlineStr">
         <is>
-          <t>++CP1</t>
-        </is>
-      </c>
-      <c r="C273" s="1" t="n"/>
+          <t>++1.010FX1</t>
+        </is>
+      </c>
+      <c r="C273" s="1" t="inlineStr">
+        <is>
+          <t>+VI1</t>
+        </is>
+      </c>
       <c r="D273" s="1" t="inlineStr">
         <is>
-          <t>-FC24</t>
+          <t>-XG41.46</t>
         </is>
       </c>
       <c r="E273" s="1" t="n"/>
-      <c r="F273" s="1" t="inlineStr">
-        <is>
-          <t>RITTAL</t>
-        </is>
-      </c>
-      <c r="G273" s="1" t="inlineStr">
-        <is>
-          <t>SV.3418040</t>
-        </is>
-      </c>
+      <c r="F273" s="1" t="n"/>
+      <c r="G273" s="1" t="n"/>
       <c r="H273" s="1" t="inlineStr">
         <is>
-          <t>-WD++CP1-FC24/
- ++1.100IR1+TD1-TA1-XD1</t>
+          <t>-W++1.010FX1+VI1-XG41.46-1/
+ ++1.010FX1+VI1-BG12.3</t>
         </is>
       </c>
       <c r="I273" s="1" t="inlineStr">
         <is>
-          <t>ÖLFLEX CLASSIC 110 G</t>
+          <t>PUR-OB (BK-BK)</t>
         </is>
       </c>
       <c r="J273" s="1" t="inlineStr">
         <is>
-          <t>4G2,5 mm²</t>
+          <t>4x0,34 mm²</t>
         </is>
       </c>
       <c r="K273" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/18.7</t>
+          <t>==L01=DF--.1++1.010FX1+VI1&amp;EFS/6.6</t>
         </is>
       </c>
       <c r="L273" s="2">
@@ -20330,26 +20343,30 @@
       </c>
       <c r="M273" s="1" t="inlineStr">
         <is>
-          <t>++1.100IR1</t>
+          <t>++1.010FX1</t>
         </is>
       </c>
       <c r="N273" s="1" t="inlineStr">
         <is>
-          <t>+TD1</t>
+          <t>+VI1</t>
         </is>
       </c>
       <c r="O273" s="1" t="inlineStr">
         <is>
-          <t>-TA1</t>
-        </is>
-      </c>
-      <c r="P273" s="1" t="inlineStr">
-        <is>
-          <t>-XD1</t>
-        </is>
-      </c>
-      <c r="Q273" s="1" t="n"/>
-      <c r="R273" s="1" t="n"/>
+          <t>-BG12.3</t>
+        </is>
+      </c>
+      <c r="P273" s="1" t="n"/>
+      <c r="Q273" s="1" t="inlineStr">
+        <is>
+          <t>TURCK</t>
+        </is>
+      </c>
+      <c r="R273" s="1" t="inlineStr">
+        <is>
+          <t>BI8U-MT18-AP6X-H1141</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2">
@@ -20358,53 +20375,41 @@
       </c>
       <c r="B274" s="1" t="inlineStr">
         <is>
-          <t>++MS1</t>
+          <t>++1.010IR2</t>
         </is>
       </c>
       <c r="C274" s="1" t="inlineStr">
         <is>
-          <t>+VI1</t>
+          <t>+IA001</t>
         </is>
       </c>
       <c r="D274" s="1" t="inlineStr">
         <is>
-          <t>-KF55</t>
-        </is>
-      </c>
-      <c r="E274" s="1" t="inlineStr">
-        <is>
-          <t>-XD02</t>
-        </is>
-      </c>
-      <c r="F274" s="1" t="inlineStr">
-        <is>
-          <t>MURRELEKTRONIK</t>
-        </is>
-      </c>
-      <c r="G274" s="1" t="inlineStr">
-        <is>
-          <t>MVK-MPNIO DI6 DO6 IOL IRT</t>
-        </is>
-      </c>
+          <t>-XF01</t>
+        </is>
+      </c>
+      <c r="E274" s="1" t="n"/>
+      <c r="F274" s="1" t="n"/>
+      <c r="G274" s="1" t="n"/>
       <c r="H274" s="1" t="inlineStr">
         <is>
-          <t>-WD++MS1+VI1-KF55-XD02/
- ++1+VI1-KF56-XD01</t>
+          <t>-W++1.010IR2+IA001-XF01/
+ ++1.010IR2+IA003-XF01</t>
         </is>
       </c>
       <c r="I274" s="1" t="inlineStr">
         <is>
-          <t>ÖLFLEX CLASSIC 110 G</t>
+          <t>4.042.021</t>
         </is>
       </c>
       <c r="J274" s="1" t="inlineStr">
         <is>
-          <t>5G2,5 mm²</t>
+          <t>4x0,22 AWG</t>
         </is>
       </c>
       <c r="K274" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++MS1+VI1&amp;EFS/1.7</t>
+          <t>==L01=DF--.1++LINE_INF+PN_TOPO&amp;EFA/46.4</t>
         </is>
       </c>
       <c r="L274" s="2">
@@ -20413,34 +20418,22 @@
       </c>
       <c r="M274" s="1" t="inlineStr">
         <is>
-          <t>++1</t>
+          <t>++1.010IR2</t>
         </is>
       </c>
       <c r="N274" s="1" t="inlineStr">
         <is>
-          <t>+VI1</t>
+          <t>+IA003</t>
         </is>
       </c>
       <c r="O274" s="1" t="inlineStr">
         <is>
-          <t>-KF56</t>
-        </is>
-      </c>
-      <c r="P274" s="1" t="inlineStr">
-        <is>
-          <t>-XD01</t>
-        </is>
-      </c>
-      <c r="Q274" s="1" t="inlineStr">
-        <is>
-          <t>MURRELEKTRONIK</t>
-        </is>
-      </c>
-      <c r="R274" s="1" t="inlineStr">
-        <is>
-          <t>MVK+ MPNIO DIO8 DIO8 Push Pull</t>
-        </is>
-      </c>
+          <t>-XF01</t>
+        </is>
+      </c>
+      <c r="P274" s="1" t="n"/>
+      <c r="Q274" s="1" t="n"/>
+      <c r="R274" s="1" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="2">
@@ -20449,17 +20442,13 @@
       </c>
       <c r="B275" s="1" t="inlineStr">
         <is>
-          <t>++1.010FX1</t>
-        </is>
-      </c>
-      <c r="C275" s="1" t="inlineStr">
-        <is>
-          <t>+VI1</t>
-        </is>
-      </c>
+          <t>++1.010SW2</t>
+        </is>
+      </c>
+      <c r="C275" s="1" t="n"/>
       <c r="D275" s="1" t="inlineStr">
         <is>
-          <t>-XG41.46</t>
+          <t>-BG01</t>
         </is>
       </c>
       <c r="E275" s="1" t="n"/>
@@ -20467,23 +20456,23 @@
       <c r="G275" s="1" t="n"/>
       <c r="H275" s="1" t="inlineStr">
         <is>
-          <t>-W++1.010FX1+VI1-XG41.46-1/
- ++1.010FX1+VI1-BG12.3</t>
+          <t>-W++1.010SW2-BG01-XD1B-XD2/
+ ++1.010DP1+VI1-KF53-XD01</t>
         </is>
       </c>
       <c r="I275" s="1" t="inlineStr">
         <is>
-          <t>PUR-OB (BK-BK)</t>
+          <t>ÖLFLEX CLASSIC 110 G</t>
         </is>
       </c>
       <c r="J275" s="1" t="inlineStr">
         <is>
-          <t>4x0,34 mm²</t>
+          <t>5G2,5 mm²</t>
         </is>
       </c>
       <c r="K275" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++1.010FX1+VI1&amp;EFS/6.6</t>
+          <t>==L01=DF--.1++1.010SW2&amp;EFS/1.3</t>
         </is>
       </c>
       <c r="L275" s="2">
@@ -20492,7 +20481,7 @@
       </c>
       <c r="M275" s="1" t="inlineStr">
         <is>
-          <t>++1.010FX1</t>
+          <t>++1.010DP1</t>
         </is>
       </c>
       <c r="N275" s="1" t="inlineStr">
@@ -20502,18 +20491,22 @@
       </c>
       <c r="O275" s="1" t="inlineStr">
         <is>
-          <t>-BG12.3</t>
-        </is>
-      </c>
-      <c r="P275" s="1" t="n"/>
+          <t>-KF53</t>
+        </is>
+      </c>
+      <c r="P275" s="1" t="inlineStr">
+        <is>
+          <t>-XD01</t>
+        </is>
+      </c>
       <c r="Q275" s="1" t="inlineStr">
         <is>
-          <t>TURCK</t>
+          <t>MURRELEKTRONIK</t>
         </is>
       </c>
       <c r="R275" s="1" t="inlineStr">
         <is>
-          <t>BI8U-MT18-AP6X-H1141</t>
+          <t>MVK+ MPNIO DI8 DI8 IRT</t>
         </is>
       </c>
     </row>
@@ -20524,41 +20517,49 @@
       </c>
       <c r="B276" s="1" t="inlineStr">
         <is>
-          <t>++1.010IR2</t>
-        </is>
-      </c>
-      <c r="C276" s="1" t="inlineStr">
-        <is>
-          <t>+IA001</t>
-        </is>
-      </c>
+          <t>++CC1</t>
+        </is>
+      </c>
+      <c r="C276" s="1" t="n"/>
       <c r="D276" s="1" t="inlineStr">
         <is>
-          <t>-XF01</t>
-        </is>
-      </c>
-      <c r="E276" s="1" t="n"/>
-      <c r="F276" s="1" t="n"/>
-      <c r="G276" s="1" t="n"/>
+          <t>-KF20</t>
+        </is>
+      </c>
+      <c r="E276" s="1" t="inlineStr">
+        <is>
+          <t>-P24</t>
+        </is>
+      </c>
+      <c r="F276" s="1" t="inlineStr">
+        <is>
+          <t>Siemens</t>
+        </is>
+      </c>
+      <c r="G276" s="1" t="inlineStr">
+        <is>
+          <t>6GK5224-0BA00-2AC2</t>
+        </is>
+      </c>
       <c r="H276" s="1" t="inlineStr">
         <is>
-          <t>-W++1.010IR2+IA001-XF01/
- ++1.010IR2+IA003-XF01</t>
+          <t>-W++CC1-KF20-P24/
+ ++2.180IR1+CA1-A2-ETHERNET</t>
         </is>
       </c>
       <c r="I276" s="1" t="inlineStr">
         <is>
-          <t>4.042.021</t>
+          <t>ETHERNET</t>
         </is>
       </c>
       <c r="J276" s="1" t="inlineStr">
         <is>
-          <t>4x0,22 AWG</t>
+          <t>4x2x22 AWG</t>
         </is>
       </c>
       <c r="K276" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++LINE_INF+PN_TOPO&amp;EFA/46.4</t>
+          <t>==L01=DF--.1++LINE_INF+TR_TOPO&amp;EFA/2.1</t>
         </is>
       </c>
       <c r="L276" s="2">
@@ -20567,20 +20568,24 @@
       </c>
       <c r="M276" s="1" t="inlineStr">
         <is>
-          <t>++1.010IR2</t>
+          <t>++2.180IR1</t>
         </is>
       </c>
       <c r="N276" s="1" t="inlineStr">
         <is>
-          <t>+IA003</t>
+          <t>+CA1</t>
         </is>
       </c>
       <c r="O276" s="1" t="inlineStr">
         <is>
-          <t>-XF01</t>
-        </is>
-      </c>
-      <c r="P276" s="1" t="n"/>
+          <t>-A2</t>
+        </is>
+      </c>
+      <c r="P276" s="1" t="inlineStr">
+        <is>
+          <t>-ETHERNET</t>
+        </is>
+      </c>
       <c r="Q276" s="1" t="n"/>
       <c r="R276" s="1" t="n"/>
     </row>
@@ -20591,22 +20596,30 @@
       </c>
       <c r="B277" s="1" t="inlineStr">
         <is>
-          <t>++1.010SW2</t>
+          <t>++CC1</t>
         </is>
       </c>
       <c r="C277" s="1" t="n"/>
       <c r="D277" s="1" t="inlineStr">
         <is>
-          <t>-BG01</t>
+          <t>-XD310</t>
         </is>
       </c>
       <c r="E277" s="1" t="n"/>
-      <c r="F277" s="1" t="n"/>
-      <c r="G277" s="1" t="n"/>
+      <c r="F277" s="1" t="inlineStr">
+        <is>
+          <t>PHOENIX</t>
+        </is>
+      </c>
+      <c r="G277" s="1" t="inlineStr">
+        <is>
+          <t>STS 4-TWIN/L</t>
+        </is>
+      </c>
       <c r="H277" s="1" t="inlineStr">
         <is>
-          <t>-W++1.010SW2-BG01-XD1B-XD2/
- ++1.010DP1+VI1-KF53-XD01</t>
+          <t>-W++CC1-XD310/
+ ++OP2-XD3</t>
         </is>
       </c>
       <c r="I277" s="1" t="inlineStr">
@@ -20616,12 +20629,12 @@
       </c>
       <c r="J277" s="1" t="inlineStr">
         <is>
-          <t>5G2,5 mm²</t>
+          <t>3G2,5 mm²</t>
         </is>
       </c>
       <c r="K277" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++1.010SW2&amp;EFS/1.3</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/5.7</t>
         </is>
       </c>
       <c r="L277" s="2">
@@ -20630,34 +20643,18 @@
       </c>
       <c r="M277" s="1" t="inlineStr">
         <is>
-          <t>++1.010DP1</t>
-        </is>
-      </c>
-      <c r="N277" s="1" t="inlineStr">
-        <is>
-          <t>+VI1</t>
-        </is>
-      </c>
+          <t>++OP2</t>
+        </is>
+      </c>
+      <c r="N277" s="1" t="n"/>
       <c r="O277" s="1" t="inlineStr">
         <is>
-          <t>-KF53</t>
-        </is>
-      </c>
-      <c r="P277" s="1" t="inlineStr">
-        <is>
-          <t>-XD01</t>
-        </is>
-      </c>
-      <c r="Q277" s="1" t="inlineStr">
-        <is>
-          <t>MURRELEKTRONIK</t>
-        </is>
-      </c>
-      <c r="R277" s="1" t="inlineStr">
-        <is>
-          <t>MVK+ MPNIO DI8 DI8 IRT</t>
-        </is>
-      </c>
+          <t>-XD3</t>
+        </is>
+      </c>
+      <c r="P277" s="1" t="n"/>
+      <c r="Q277" s="1" t="n"/>
+      <c r="R277" s="1" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="2">
@@ -20672,43 +20669,39 @@
       <c r="C278" s="1" t="n"/>
       <c r="D278" s="1" t="inlineStr">
         <is>
-          <t>-KF20</t>
-        </is>
-      </c>
-      <c r="E278" s="1" t="inlineStr">
-        <is>
-          <t>-P24</t>
-        </is>
-      </c>
+          <t>-XD321</t>
+        </is>
+      </c>
+      <c r="E278" s="1" t="n"/>
       <c r="F278" s="1" t="inlineStr">
         <is>
-          <t>Siemens</t>
+          <t>PHOENIX</t>
         </is>
       </c>
       <c r="G278" s="1" t="inlineStr">
         <is>
-          <t>6GK5224-0BA00-2AC2</t>
+          <t>STS 4-TWIN/L</t>
         </is>
       </c>
       <c r="H278" s="1" t="inlineStr">
         <is>
-          <t>-W++CC1-KF20-P24/
- ++2.180IR1+CA1-A2-ETHERNET</t>
+          <t>-W++CC1-XD321/
+ ++1.070TT1-XD01A</t>
         </is>
       </c>
       <c r="I278" s="1" t="inlineStr">
         <is>
-          <t>ETHERNET</t>
+          <t>ÖLFLEX CLASSIC 110 G</t>
         </is>
       </c>
       <c r="J278" s="1" t="inlineStr">
         <is>
-          <t>4x2x22 AWG</t>
+          <t>5G2,5 mm²</t>
         </is>
       </c>
       <c r="K278" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++LINE_INF+TR_TOPO&amp;EFA/2.1</t>
+          <t>==L01=DF--.1++CC1&amp;EFS/13.7</t>
         </is>
       </c>
       <c r="L278" s="2">
@@ -20717,26 +20710,26 @@
       </c>
       <c r="M278" s="1" t="inlineStr">
         <is>
-          <t>++2.180IR1</t>
-        </is>
-      </c>
-      <c r="N278" s="1" t="inlineStr">
-        <is>
-          <t>+CA1</t>
-        </is>
-      </c>
+          <t>++1.070TT1</t>
+        </is>
+      </c>
+      <c r="N278" s="1" t="n"/>
       <c r="O278" s="1" t="inlineStr">
         <is>
-          <t>-A2</t>
-        </is>
-      </c>
-      <c r="P278" s="1" t="inlineStr">
-        <is>
-          <t>-ETHERNET</t>
-        </is>
-      </c>
-      <c r="Q278" s="1" t="n"/>
-      <c r="R278" s="1" t="n"/>
+          <t>-XD01A</t>
+        </is>
+      </c>
+      <c r="P278" s="1" t="n"/>
+      <c r="Q278" s="1" t="inlineStr">
+        <is>
+          <t>WEIDMÜLLER</t>
+        </is>
+      </c>
+      <c r="R278" s="1" t="inlineStr">
+        <is>
+          <t>IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2">
@@ -20745,31 +20738,30 @@
       </c>
       <c r="B279" s="1" t="inlineStr">
         <is>
-          <t>++CC1</t>
+          <t>++CP1</t>
         </is>
       </c>
       <c r="C279" s="1" t="n"/>
       <c r="D279" s="1" t="inlineStr">
         <is>
-          <t>-XD310</t>
+          <t>-FC19</t>
         </is>
       </c>
       <c r="E279" s="1" t="n"/>
       <c r="F279" s="1" t="inlineStr">
         <is>
-          <t>PHOENIX</t>
+          <t>RITTAL</t>
         </is>
       </c>
       <c r="G279" s="1" t="inlineStr">
         <is>
-          <t>STS 4-TWIN/L</t>
-        </is>
-      </c>
-      <c r="H279" s="1" t="inlineStr">
-        <is>
-          <t>-W++CC1-XD310/
- ++OP2-XD3</t>
-        </is>
+          <t>SV.3418040</t>
+        </is>
+      </c>
+      <c r="H279" s="2">
+        <f>DF-.1-WD++CP1-FC19.1/
+ ++1.010IR1+CG3-XD01</f>
+        <v/>
       </c>
       <c r="I279" s="1" t="inlineStr">
         <is>
@@ -20783,7 +20775,7 @@
       </c>
       <c r="K279" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/5.7</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/17.1</t>
         </is>
       </c>
       <c r="L279" s="2">
@@ -20792,13 +20784,17 @@
       </c>
       <c r="M279" s="1" t="inlineStr">
         <is>
-          <t>++OP2</t>
-        </is>
-      </c>
-      <c r="N279" s="1" t="n"/>
+          <t>++1.010IR1</t>
+        </is>
+      </c>
+      <c r="N279" s="1" t="inlineStr">
+        <is>
+          <t>+CG3</t>
+        </is>
+      </c>
       <c r="O279" s="1" t="inlineStr">
         <is>
-          <t>-XD3</t>
+          <t>-XD01</t>
         </is>
       </c>
       <c r="P279" s="1" t="n"/>
@@ -20812,31 +20808,30 @@
       </c>
       <c r="B280" s="1" t="inlineStr">
         <is>
-          <t>++CC1</t>
+          <t>++CP1</t>
         </is>
       </c>
       <c r="C280" s="1" t="n"/>
       <c r="D280" s="1" t="inlineStr">
         <is>
-          <t>-XD321</t>
+          <t>-FC19</t>
         </is>
       </c>
       <c r="E280" s="1" t="n"/>
       <c r="F280" s="1" t="inlineStr">
         <is>
-          <t>PHOENIX</t>
+          <t>RITTAL</t>
         </is>
       </c>
       <c r="G280" s="1" t="inlineStr">
         <is>
-          <t>STS 4-TWIN/L</t>
-        </is>
-      </c>
-      <c r="H280" s="1" t="inlineStr">
-        <is>
-          <t>-W++CC1-XD321/
- ++1.070TT1-XD01A</t>
-        </is>
+          <t>SV.3418040</t>
+        </is>
+      </c>
+      <c r="H280" s="2">
+        <f>DF-.1-WD++CP1-FC19.2/
+ ++1.050IR2+CG3-XD01</f>
+        <v/>
       </c>
       <c r="I280" s="1" t="inlineStr">
         <is>
@@ -20845,12 +20840,12 @@
       </c>
       <c r="J280" s="1" t="inlineStr">
         <is>
-          <t>5G2,5 mm²</t>
+          <t>3G2,5 mm²</t>
         </is>
       </c>
       <c r="K280" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CC1&amp;EFS/13.7</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/17.3</t>
         </is>
       </c>
       <c r="L280" s="2">
@@ -20859,26 +20854,22 @@
       </c>
       <c r="M280" s="1" t="inlineStr">
         <is>
-          <t>++1.070TT1</t>
-        </is>
-      </c>
-      <c r="N280" s="1" t="n"/>
+          <t>++1.050IR2</t>
+        </is>
+      </c>
+      <c r="N280" s="1" t="inlineStr">
+        <is>
+          <t>+CG3</t>
+        </is>
+      </c>
       <c r="O280" s="1" t="inlineStr">
         <is>
-          <t>-XD01A</t>
+          <t>-XD01</t>
         </is>
       </c>
       <c r="P280" s="1" t="n"/>
-      <c r="Q280" s="1" t="inlineStr">
-        <is>
-          <t>WEIDMÜLLER</t>
-        </is>
-      </c>
-      <c r="R280" s="1" t="inlineStr">
-        <is>
-          <t>IE-CD-V14MRJ/VAPM24V-C</t>
-        </is>
-      </c>
+      <c r="Q280" s="1" t="n"/>
+      <c r="R280" s="1" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="2">
@@ -20908,8 +20899,8 @@
         </is>
       </c>
       <c r="H281" s="2">
-        <f>DF-.1-WD++CP1-FC19.1/
- ++1.010IR1+CG3-XD01</f>
+        <f>DF-.1-WD++CP1-FC19.3/
+ ++1.060IR1+CG3-XD01</f>
         <v/>
       </c>
       <c r="I281" s="1" t="inlineStr">
@@ -20924,7 +20915,7 @@
       </c>
       <c r="K281" s="2" t="inlineStr">
         <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/17.1</t>
+          <t>==L01=DF--.1++CP1&amp;EFS/17.4</t>
         </is>
       </c>
       <c r="L281" s="2">
@@ -20933,7 +20924,7 @@
       </c>
       <c r="M281" s="1" t="inlineStr">
         <is>
-          <t>++1.010IR1</t>
+          <t>++1.060IR1</t>
         </is>
       </c>
       <c r="N281" s="1" t="inlineStr">
@@ -20949,146 +20940,6 @@
       <c r="P281" s="1" t="n"/>
       <c r="Q281" s="1" t="n"/>
       <c r="R281" s="1" t="n"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="2">
-        <f>DF--.1</f>
-        <v/>
-      </c>
-      <c r="B282" s="1" t="inlineStr">
-        <is>
-          <t>++CP1</t>
-        </is>
-      </c>
-      <c r="C282" s="1" t="n"/>
-      <c r="D282" s="1" t="inlineStr">
-        <is>
-          <t>-FC19</t>
-        </is>
-      </c>
-      <c r="E282" s="1" t="n"/>
-      <c r="F282" s="1" t="inlineStr">
-        <is>
-          <t>RITTAL</t>
-        </is>
-      </c>
-      <c r="G282" s="1" t="inlineStr">
-        <is>
-          <t>SV.3418040</t>
-        </is>
-      </c>
-      <c r="H282" s="2">
-        <f>DF-.1-WD++CP1-FC19.2/
- ++1.050IR2+CG3-XD01</f>
-        <v/>
-      </c>
-      <c r="I282" s="1" t="inlineStr">
-        <is>
-          <t>ÖLFLEX CLASSIC 110 G</t>
-        </is>
-      </c>
-      <c r="J282" s="1" t="inlineStr">
-        <is>
-          <t>3G2,5 mm²</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="inlineStr">
-        <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/17.3</t>
-        </is>
-      </c>
-      <c r="L282" s="2">
-        <f>DF--.1</f>
-        <v/>
-      </c>
-      <c r="M282" s="1" t="inlineStr">
-        <is>
-          <t>++1.050IR2</t>
-        </is>
-      </c>
-      <c r="N282" s="1" t="inlineStr">
-        <is>
-          <t>+CG3</t>
-        </is>
-      </c>
-      <c r="O282" s="1" t="inlineStr">
-        <is>
-          <t>-XD01</t>
-        </is>
-      </c>
-      <c r="P282" s="1" t="n"/>
-      <c r="Q282" s="1" t="n"/>
-      <c r="R282" s="1" t="n"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="2">
-        <f>DF--.1</f>
-        <v/>
-      </c>
-      <c r="B283" s="1" t="inlineStr">
-        <is>
-          <t>++CP1</t>
-        </is>
-      </c>
-      <c r="C283" s="1" t="n"/>
-      <c r="D283" s="1" t="inlineStr">
-        <is>
-          <t>-FC19</t>
-        </is>
-      </c>
-      <c r="E283" s="1" t="n"/>
-      <c r="F283" s="1" t="inlineStr">
-        <is>
-          <t>RITTAL</t>
-        </is>
-      </c>
-      <c r="G283" s="1" t="inlineStr">
-        <is>
-          <t>SV.3418040</t>
-        </is>
-      </c>
-      <c r="H283" s="2">
-        <f>DF-.1-WD++CP1-FC19.3/
- ++1.060IR1+CG3-XD01</f>
-        <v/>
-      </c>
-      <c r="I283" s="1" t="inlineStr">
-        <is>
-          <t>ÖLFLEX CLASSIC 110 G</t>
-        </is>
-      </c>
-      <c r="J283" s="1" t="inlineStr">
-        <is>
-          <t>3G2,5 mm²</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="inlineStr">
-        <is>
-          <t>==L01=DF--.1++CP1&amp;EFS/17.4</t>
-        </is>
-      </c>
-      <c r="L283" s="2">
-        <f>DF--.1</f>
-        <v/>
-      </c>
-      <c r="M283" s="1" t="inlineStr">
-        <is>
-          <t>++1.060IR1</t>
-        </is>
-      </c>
-      <c r="N283" s="1" t="inlineStr">
-        <is>
-          <t>+CG3</t>
-        </is>
-      </c>
-      <c r="O283" s="1" t="inlineStr">
-        <is>
-          <t>-XD01</t>
-        </is>
-      </c>
-      <c r="P283" s="1" t="n"/>
-      <c r="Q283" s="1" t="n"/>
-      <c r="R283" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21101,7 +20952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21197,202 +21048,236 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>-WD++CP1-0XD01/
+ ++CP1-0EA01-XI</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>=L01=DF--.1++CP1&amp;EFS/4.3</f>
+        <v/>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Interno CC1/CP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>-WD++1.030SW1+JB9-0XD01/
  ++1.030SW1-0EA04</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>=L01=DF--.1++1.010SW1&amp;EFS/11.4</f>
         <v/>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>-WD++9.901IR1+RC1-X12/
  ++9.901IR1+IA001-XD01</t>
         </is>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>=L01=DF--.1++1.080IR1+RC1&amp;EFS/3.1</f>
         <v/>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Manguera sin Origenes ni Destinos conectados</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>-WD++CC1-0XD01/
+ ++CC1-0BG02</t>
+        </is>
+      </c>
+      <c r="B9">
+        <f>=L01=DF--.1++CC1&amp;EFS/4.4</f>
+        <v/>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Interno CC1/CP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>-W++1.050IR1+TD1-XD1/
  ++1.050IR1+TD1-MA1-XD1</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="B10">
         <f>=L01=DF--.1++1.050IR1+TD1&amp;EFS/1.3</f>
         <v/>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>-W++1.070IR1+TD1-XD1/
  ++1.070IR1+TD1-MA1-XD1</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="B11">
         <f>=L01=DF--.1++1.070IR1+TD1&amp;EFS/1.3</f>
         <v/>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>-W++1.090IR1+TD1-XD1/
  ++1.090IR1+TD1-MA1-XD1</t>
         </is>
       </c>
-      <c r="B10">
+      <c r="B12">
         <f>=L01=DF--.1++1.090IR1+TD1&amp;EFS/1.3</f>
         <v/>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>-W++1.090IR2+TD1-XD1/
  ++1.090IR2+TD1-MA1-XD1</t>
         </is>
       </c>
-      <c r="B11">
+      <c r="B13">
         <f>=L01=DF--.1++1.090IR2+TD1&amp;EFS/1.3</f>
         <v/>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>-WD++1.030IR1+TS1-KF51-XD02/
  ++1.030IR1+TS3-KF51-XD01</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="B14">
         <f>=L01=DF--.1++1.080IR1+TS1&amp;EFS/1.7</f>
         <v/>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Manguera sin Origenes ni Destinos conectados</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">-W/
 </t>
         </is>
       </c>
-      <c r="B13">
+      <c r="B15">
         <f>=L01=DF--.1++1.100IR1+DS1&amp;EFS/3.1</f>
         <v/>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Manguera sin Origenes ni Destinos conectados</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>-WD++1.030SW1+JB9-0XD01/
  ++1.030SW1-0BG01</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="B16">
         <f>=L01=DF--.1++1.010SW1&amp;EFS/11.1</f>
         <v/>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>-WD++1.030SW1+JB9-0XD01/
  ++1.030SW1-0EA01</t>
         </is>
       </c>
-      <c r="B15">
+      <c r="B17">
         <f>=L01=DF--.1++1.010SW1&amp;EFS/11.2</f>
         <v/>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>-WD++1.030SW1+JB9-0XD01/
  ++1.030SW1-0EA02</t>
         </is>
       </c>
-      <c r="B16">
+      <c r="B18">
         <f>=L01=DF--.1++1.010SW1&amp;EFS/11.3</f>
         <v/>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>-WD++1.030SW1+JB9-0XD01/
  ++1.030SW1-0EA03</t>
         </is>
       </c>
-      <c r="B17">
+      <c r="B19">
         <f>=L01=DF--.1++1.010SW1&amp;EFS/11.3</f>
         <v/>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>El Origen y/o Destino no se encuentra en el nombre de la Manguera</t>
         </is>
